--- a/dont_knows_by_category.xlsx
+++ b/dont_knows_by_category.xlsx
@@ -482,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,16 +654,16 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.1261422689933724</v>
+        <v>0.1261422689933723</v>
       </c>
       <c r="C8">
-        <v>0.09684012918604151</v>
+        <v>0.09684012918604148</v>
       </c>
       <c r="D8">
-        <v>0.06916229353005601</v>
+        <v>0.06916229353005598</v>
       </c>
       <c r="E8">
-        <v>0.05583283482587956</v>
+        <v>0.05583283482587955</v>
       </c>
       <c r="F8">
         <v>0.07133412066337602</v>
@@ -709,7 +709,7 @@
         <v>0.06858640157756825</v>
       </c>
       <c r="E10">
-        <v>0.07968370016222864</v>
+        <v>0.07968370016222866</v>
       </c>
       <c r="F10">
         <v>0.04998174439342237</v>
@@ -821,13 +821,13 @@
         <v>0.1082963501113445</v>
       </c>
       <c r="D15">
-        <v>0.08921190934122147</v>
+        <v>0.08921190934122146</v>
       </c>
       <c r="E15">
-        <v>0.08718496561893439</v>
+        <v>0.08718496561893445</v>
       </c>
       <c r="F15">
-        <v>0.0986271853791032</v>
+        <v>0.09862718537910324</v>
       </c>
       <c r="G15">
         <v>0.1254547962036584</v>
@@ -887,10 +887,10 @@
         <v>0.1684664619300673</v>
       </c>
       <c r="C18">
-        <v>0.08994630951678577</v>
+        <v>0.08994630951678576</v>
       </c>
       <c r="D18">
-        <v>0.09600939781310834</v>
+        <v>0.09600939781310833</v>
       </c>
       <c r="E18">
         <v>0.06890750718824755</v>
@@ -976,19 +976,19 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.2306209233079815</v>
+        <v>0.2306209233079818</v>
       </c>
       <c r="C22">
-        <v>0.1428761003229089</v>
+        <v>0.1428761003229088</v>
       </c>
       <c r="D22">
         <v>0.1224990576878177</v>
       </c>
       <c r="E22">
-        <v>0.0911608228543164</v>
+        <v>0.09116082285431637</v>
       </c>
       <c r="F22">
-        <v>0.1177886643557122</v>
+        <v>0.1177886643557121</v>
       </c>
       <c r="G22">
         <v>0.1689821990059232</v>
@@ -1054,7 +1054,7 @@
         <v>0.144869398876157</v>
       </c>
       <c r="E25">
-        <v>0.1796780561883068</v>
+        <v>0.1796780561883069</v>
       </c>
       <c r="F25">
         <v>0.179648352951641</v>
@@ -1137,22 +1137,22 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.2057007328903228</v>
+        <v>0.2057007328903227</v>
       </c>
       <c r="C29">
-        <v>0.1357626296670214</v>
+        <v>0.1357626296670215</v>
       </c>
       <c r="D29">
         <v>0.1573115692472205</v>
       </c>
       <c r="E29">
-        <v>0.1920218915082604</v>
+        <v>0.1920218915082603</v>
       </c>
       <c r="F29">
-        <v>0.1462845002892077</v>
+        <v>0.1462845002892076</v>
       </c>
       <c r="G29">
-        <v>0.2286798529702535</v>
+        <v>0.2286798529702534</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1163,7 +1163,7 @@
         <v>0.2737851248648489</v>
       </c>
       <c r="C30">
-        <v>0.182093738568305</v>
+        <v>0.1820937385683051</v>
       </c>
       <c r="D30">
         <v>0.1777869598333753</v>
@@ -1192,7 +1192,7 @@
         <v>0.1075244261511596</v>
       </c>
       <c r="E31">
-        <v>0.1240072645691917</v>
+        <v>0.1240072645691918</v>
       </c>
       <c r="F31">
         <v>0.1193159743579419</v>
@@ -1278,19 +1278,19 @@
         <v>0.2870531593266102</v>
       </c>
       <c r="C35">
-        <v>0.1665177749357437</v>
+        <v>0.1665177749357439</v>
       </c>
       <c r="D35">
-        <v>0.1561866718619544</v>
+        <v>0.1561866718619545</v>
       </c>
       <c r="E35">
-        <v>0.1580017553727315</v>
+        <v>0.1580017553727314</v>
       </c>
       <c r="F35">
-        <v>0.155088551406365</v>
+        <v>0.1550885514063648</v>
       </c>
       <c r="G35">
-        <v>0.1941734821707259</v>
+        <v>0.1941734821707257</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1298,16 +1298,16 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.2547983114312317</v>
+        <v>0.2547983114312314</v>
       </c>
       <c r="C36">
-        <v>0.2025496897042763</v>
+        <v>0.2025496897042764</v>
       </c>
       <c r="D36">
         <v>0.1449820303868923</v>
       </c>
       <c r="E36">
-        <v>0.1731961222864766</v>
+        <v>0.1731961222864765</v>
       </c>
       <c r="F36">
         <v>0.1409306373790685</v>
@@ -1416,7 +1416,7 @@
         <v>0.218470016104222</v>
       </c>
       <c r="C41">
-        <v>0.2318310189654771</v>
+        <v>0.2318310189654772</v>
       </c>
       <c r="D41">
         <v>0.1835019339457202</v>
@@ -1439,19 +1439,19 @@
         <v>0.268986594251712</v>
       </c>
       <c r="C42">
-        <v>0.2193831137668955</v>
+        <v>0.2193831137668956</v>
       </c>
       <c r="D42">
         <v>0.2094939873348891</v>
       </c>
       <c r="E42">
-        <v>0.1508945416420115</v>
+        <v>0.1508945416420114</v>
       </c>
       <c r="F42">
         <v>0.1927982048325899</v>
       </c>
       <c r="G42">
-        <v>0.2698970300414699</v>
+        <v>0.2698970300414702</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1505,7 +1505,7 @@
         <v>43739</v>
       </c>
       <c r="B45">
-        <v>0.2513447062034</v>
+        <v>0.2513447062034001</v>
       </c>
       <c r="C45">
         <v>0.2257232528851141</v>
@@ -1520,7 +1520,7 @@
         <v>0.1932478763456584</v>
       </c>
       <c r="G45">
-        <v>0.304563757481748</v>
+        <v>0.3045637574817481</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1540,7 +1540,7 @@
         <v>0.2132950471381755</v>
       </c>
       <c r="F46">
-        <v>0.2332723334057067</v>
+        <v>0.2332723334057066</v>
       </c>
       <c r="G46">
         <v>0.2583839225357369</v>
@@ -1574,22 +1574,22 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.1663643708053225</v>
+        <v>0.1663643708053227</v>
       </c>
       <c r="C48">
-        <v>0.1484941599011503</v>
+        <v>0.1484941599011502</v>
       </c>
       <c r="D48">
         <v>0.1517663153399775</v>
       </c>
       <c r="E48">
-        <v>0.1824797909313523</v>
+        <v>0.1824797909313522</v>
       </c>
       <c r="F48">
         <v>0.1797463518827941</v>
       </c>
       <c r="G48">
-        <v>0.1050340036207891</v>
+        <v>0.1050340036207892</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1597,22 +1597,22 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.1653161503176163</v>
+        <v>0.1653161503176162</v>
       </c>
       <c r="C49">
-        <v>0.1456862367504826</v>
+        <v>0.1456862367504825</v>
       </c>
       <c r="D49">
-        <v>0.1891483324320792</v>
+        <v>0.189148332432079</v>
       </c>
       <c r="E49">
         <v>0.1561871355634542</v>
       </c>
       <c r="F49">
-        <v>0.125170184367002</v>
+        <v>0.1251701843670021</v>
       </c>
       <c r="G49">
-        <v>0.1380599815842557</v>
+        <v>0.1380599815842556</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1678,7 +1678,7 @@
         <v>0.1434749476548108</v>
       </c>
       <c r="F52">
-        <v>0.1537619909344504</v>
+        <v>0.1537619909344503</v>
       </c>
       <c r="G52">
         <v>0.1083490060562884</v>
@@ -1712,22 +1712,22 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.09398265400774326</v>
+        <v>0.09398265400774333</v>
       </c>
       <c r="C54">
-        <v>0.1383545374674847</v>
+        <v>0.1383545374674846</v>
       </c>
       <c r="D54">
-        <v>0.1695294048026481</v>
+        <v>0.1695294048026486</v>
       </c>
       <c r="E54">
-        <v>0.1347968222910183</v>
+        <v>0.1347968222910184</v>
       </c>
       <c r="F54">
-        <v>0.09700373867840838</v>
+        <v>0.09700373867840827</v>
       </c>
       <c r="G54">
-        <v>0.1141940503046437</v>
+        <v>0.1141940503046435</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1827,10 +1827,10 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.1224875523326828</v>
+        <v>0.1224875523326827</v>
       </c>
       <c r="C59">
-        <v>0.1291115305912232</v>
+        <v>0.1291115305912231</v>
       </c>
       <c r="D59">
         <v>0.1647557118078042</v>
@@ -1885,7 +1885,7 @@
         <v>0.1392207409761278</v>
       </c>
       <c r="F61">
-        <v>0.1592131940180864</v>
+        <v>0.1592131940180863</v>
       </c>
       <c r="G61">
         <v>0.1101854427287457</v>
@@ -1988,22 +1988,45 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.09474320225636571</v>
+        <v>0.09474320640300335</v>
       </c>
       <c r="C66">
-        <v>0.1186814722062875</v>
+        <v>0.1186814701967786</v>
       </c>
       <c r="D66">
-        <v>0.1644808804381792</v>
+        <v>0.1644808773591918</v>
       </c>
       <c r="E66">
-        <v>0.1543334816628672</v>
+        <v>0.1543334789918216</v>
       </c>
       <c r="F66">
-        <v>0.1205038280473644</v>
+        <v>0.1205038306656197</v>
       </c>
       <c r="G66">
-        <v>0.1089084471583785</v>
+        <v>0.108908448428439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.08173000825091116</v>
+      </c>
+      <c r="C67">
+        <v>0.1152474128094591</v>
+      </c>
+      <c r="D67">
+        <v>0.1308283390133785</v>
+      </c>
+      <c r="E67">
+        <v>0.1446416437598453</v>
+      </c>
+      <c r="F67">
+        <v>0.1181302702461362</v>
+      </c>
+      <c r="G67">
+        <v>0.09085179133170433</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2191,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1099635780325545</v>
+        <v>0.1099635780325546</v>
       </c>
       <c r="D8">
         <v>0.08225211082353935</v>
@@ -2200,7 +2223,7 @@
         <v>0.06731111140377447</v>
       </c>
       <c r="F8">
-        <v>0.04378015393577545</v>
+        <v>0.04378015393577544</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2234,7 +2257,7 @@
         <v>0.1219399753579004</v>
       </c>
       <c r="D10">
-        <v>0.08700000241559315</v>
+        <v>0.08700000241559316</v>
       </c>
       <c r="E10">
         <v>0.05451352915057656</v>
@@ -2331,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0760585825601517</v>
+        <v>0.07605858256015176</v>
       </c>
       <c r="D15">
         <v>0.1206176163036465</v>
       </c>
       <c r="E15">
-        <v>0.05758908780903666</v>
+        <v>0.05758908780903668</v>
       </c>
       <c r="F15">
-        <v>0.07634835564620536</v>
+        <v>0.07634835564620539</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2471,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.199891025314465</v>
+        <v>0.1998910253144649</v>
       </c>
       <c r="D22">
-        <v>0.1065250236754405</v>
+        <v>0.1065250236754404</v>
       </c>
       <c r="E22">
-        <v>0.0713437391199659</v>
+        <v>0.07134373911996592</v>
       </c>
       <c r="F22">
         <v>0.05951747593518384</v>
@@ -2537,7 +2560,7 @@
         <v>0.159609783485981</v>
       </c>
       <c r="E25">
-        <v>0.08762084353144031</v>
+        <v>0.0876208435314403</v>
       </c>
       <c r="F25">
         <v>0.06370323659789816</v>
@@ -2611,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.1482303324328795</v>
+        <v>0.1482303324328794</v>
       </c>
       <c r="D29">
         <v>0.161723652196184</v>
       </c>
       <c r="E29">
-        <v>0.08455936262769441</v>
+        <v>0.08455936262769445</v>
       </c>
       <c r="F29">
-        <v>0.07240349341821625</v>
+        <v>0.07240349341821628</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2631,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.1924546206240435</v>
+        <v>0.1924546206240434</v>
       </c>
       <c r="D30">
         <v>0.166237876022442</v>
@@ -2654,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.1978195717585467</v>
+        <v>0.1978195717585466</v>
       </c>
       <c r="D31">
         <v>0.1708599741234516</v>
@@ -2663,7 +2686,7 @@
         <v>0.09590105219847192</v>
       </c>
       <c r="G31">
-        <v>0.08852981266585203</v>
+        <v>0.08852981266585201</v>
       </c>
       <c r="H31">
         <v>0.02264489283040727</v>
@@ -2746,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.2056522064776936</v>
+        <v>0.2056522064776938</v>
       </c>
       <c r="D35">
         <v>0.1128759630465887</v>
       </c>
       <c r="E35">
-        <v>0.09193385913519456</v>
+        <v>0.09193385913519452</v>
       </c>
       <c r="G35">
         <v>0.09159041412932582</v>
@@ -2781,7 +2804,7 @@
         <v>0.1238696337566369</v>
       </c>
       <c r="H36">
-        <v>0.07665952082429796</v>
+        <v>0.07665952082429797</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2884,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.1782257457584319</v>
+        <v>0.178225745758432</v>
       </c>
       <c r="D41">
         <v>0.1198859795332983</v>
@@ -2910,7 +2933,7 @@
         <v>0.1987168639097116</v>
       </c>
       <c r="D42">
-        <v>0.1718940496222038</v>
+        <v>0.1718940496222039</v>
       </c>
       <c r="E42">
         <v>0.1514648773504698</v>
@@ -2919,7 +2942,7 @@
         <v>0.1626072897971575</v>
       </c>
       <c r="H42">
-        <v>0.09443774653788785</v>
+        <v>0.09443774653788782</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2999,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.2221057332666561</v>
+        <v>0.2221057332666562</v>
       </c>
       <c r="D46">
-        <v>0.1626670783643341</v>
+        <v>0.162667078364334</v>
       </c>
       <c r="E46">
         <v>0.1976519346765415</v>
@@ -3011,7 +3034,7 @@
         <v>0.1208871310288651</v>
       </c>
       <c r="H46">
-        <v>0.08288871921062486</v>
+        <v>0.08288871921062488</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3045,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.1892737872016703</v>
+        <v>0.1892737872016704</v>
       </c>
       <c r="D48">
         <v>0.1350628835396881</v>
       </c>
       <c r="E48">
-        <v>0.1367275213781041</v>
+        <v>0.1367275213781042</v>
       </c>
       <c r="G48">
-        <v>0.1174994646118636</v>
+        <v>0.1174994646118637</v>
       </c>
       <c r="H48">
-        <v>0.03310201040020933</v>
+        <v>0.03310201040020932</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3071,16 +3094,16 @@
         <v>0.1340794726689875</v>
       </c>
       <c r="D49">
-        <v>0.1507715531512129</v>
+        <v>0.1507715531512128</v>
       </c>
       <c r="E49">
         <v>0.1569969776658928</v>
       </c>
       <c r="G49">
-        <v>0.1103598138539519</v>
+        <v>0.1103598138539518</v>
       </c>
       <c r="H49">
-        <v>0.09431581695966137</v>
+        <v>0.09431581695966142</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3137,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.1399721806761908</v>
+        <v>0.1399721806761907</v>
       </c>
       <c r="D52">
         <v>0.1032285055727828</v>
@@ -3146,7 +3169,7 @@
         <v>0.1341414789599164</v>
       </c>
       <c r="G52">
-        <v>0.1210970867543525</v>
+        <v>0.1210970867543526</v>
       </c>
       <c r="H52">
         <v>0.09410889660777715</v>
@@ -3180,22 +3203,22 @@
         <v>44562</v>
       </c>
       <c r="I54">
-        <v>0.1216927114067368</v>
+        <v>0.1216927114067367</v>
       </c>
       <c r="J54">
-        <v>0.1224063441424591</v>
+        <v>0.122406344142459</v>
       </c>
       <c r="K54">
-        <v>0.1266720375251742</v>
+        <v>0.1266720375251741</v>
       </c>
       <c r="L54">
-        <v>0.1009530363764625</v>
+        <v>0.1009530363764626</v>
       </c>
       <c r="M54">
-        <v>0.07747860104124761</v>
+        <v>0.07747860104124756</v>
       </c>
       <c r="N54">
-        <v>0.2944591573860076</v>
+        <v>0.2944591573860078</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3298,7 +3321,7 @@
         <v>0.2102217627652208</v>
       </c>
       <c r="J59">
-        <v>0.1622541501051184</v>
+        <v>0.1622541501051185</v>
       </c>
       <c r="K59">
         <v>0.1286491199005608</v>
@@ -3318,7 +3341,7 @@
         <v>45108</v>
       </c>
       <c r="I60">
-        <v>0.1633986188728324</v>
+        <v>0.1633986188728325</v>
       </c>
       <c r="J60">
         <v>0.126348838134215</v>
@@ -3327,10 +3350,10 @@
         <v>0.121592670799751</v>
       </c>
       <c r="L60">
-        <v>0.1052193804261019</v>
+        <v>0.105219380426102</v>
       </c>
       <c r="M60">
-        <v>0.08531962254869671</v>
+        <v>0.08531962254869668</v>
       </c>
       <c r="N60">
         <v>0.181700936231127</v>
@@ -3341,10 +3364,10 @@
         <v>45200</v>
       </c>
       <c r="I61">
-        <v>0.1670774090180695</v>
+        <v>0.1670774090180696</v>
       </c>
       <c r="J61">
-        <v>0.2141488600470239</v>
+        <v>0.2141488600470242</v>
       </c>
       <c r="K61">
         <v>0.1659797926705686</v>
@@ -3353,7 +3376,7 @@
         <v>0.112606763111478</v>
       </c>
       <c r="M61">
-        <v>0.0707692054261409</v>
+        <v>0.07076920542614085</v>
       </c>
       <c r="N61">
         <v>0.2463462408817635</v>
@@ -3456,22 +3479,45 @@
         <v>45658</v>
       </c>
       <c r="I66">
-        <v>0.1966653618659422</v>
+        <v>0.1966653727139867</v>
       </c>
       <c r="J66">
-        <v>0.158653432227392</v>
+        <v>0.1586534306406492</v>
       </c>
       <c r="K66">
-        <v>0.1267845534026199</v>
+        <v>0.1267845523232553</v>
       </c>
       <c r="L66">
-        <v>0.09340851874217572</v>
+        <v>0.09340851363943503</v>
       </c>
       <c r="M66">
-        <v>0.09045932390416599</v>
+        <v>0.09045932423256732</v>
       </c>
       <c r="N66">
-        <v>0.2724347750772534</v>
+        <v>0.2724347777597373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I67">
+        <v>0.1500537802596424</v>
+      </c>
+      <c r="J67">
+        <v>0.1406410259103191</v>
+      </c>
+      <c r="K67">
+        <v>0.1119444028565624</v>
+      </c>
+      <c r="L67">
+        <v>0.104803152852872</v>
+      </c>
+      <c r="M67">
+        <v>0.07600351274828637</v>
+      </c>
+      <c r="N67">
+        <v>0.2633474194824524</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3527,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3659,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.255931616794757</v>
+        <v>0.2559316167947571</v>
       </c>
       <c r="D8">
         <v>0.1910645339216767</v>
@@ -3799,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2376005787863085</v>
+        <v>0.2376005787863087</v>
       </c>
       <c r="D15">
         <v>0.2124146216655172</v>
@@ -3819,16 +3865,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2387675633748932</v>
+        <v>0.2387675633748931</v>
       </c>
       <c r="D16">
         <v>0.1953893646683928</v>
       </c>
       <c r="E16">
-        <v>0.1843661247242719</v>
+        <v>0.1843661247242718</v>
       </c>
       <c r="F16">
-        <v>0.1298266094244806</v>
+        <v>0.1298266094244807</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3939,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2675262081903779</v>
+        <v>0.2675262081903778</v>
       </c>
       <c r="D22">
-        <v>0.2086890673683755</v>
+        <v>0.2086890673683753</v>
       </c>
       <c r="E22">
-        <v>0.1715392950225979</v>
+        <v>0.171539295022598</v>
       </c>
       <c r="F22">
         <v>0.1424374336319403</v>
@@ -3959,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2829467069249087</v>
+        <v>0.2829467069249085</v>
       </c>
       <c r="D23">
         <v>0.2956002075665568</v>
@@ -4085,7 +4131,7 @@
         <v>0.2889059632048492</v>
       </c>
       <c r="E29">
-        <v>0.1290446747152842</v>
+        <v>0.1290446747152843</v>
       </c>
       <c r="F29">
         <v>0.1742191311890582</v>
@@ -4099,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.305890632536687</v>
+        <v>0.3058906325366872</v>
       </c>
       <c r="D30">
         <v>0.2834273992614554</v>
@@ -4214,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.3170324891120907</v>
+        <v>0.3170324891120908</v>
       </c>
       <c r="D35">
         <v>0.2178130027359523</v>
       </c>
       <c r="E35">
-        <v>0.2224208201950897</v>
+        <v>0.2224208201950896</v>
       </c>
       <c r="G35">
         <v>0.2405615140112914</v>
@@ -4240,10 +4286,10 @@
         <v>0.277055502574804</v>
       </c>
       <c r="D36">
-        <v>0.2478443504583714</v>
+        <v>0.2478443504583715</v>
       </c>
       <c r="E36">
-        <v>0.2349880285340428</v>
+        <v>0.2349880285340429</v>
       </c>
       <c r="G36">
         <v>0.25793033209521</v>
@@ -4361,7 +4407,7 @@
         <v>0.3092808353369096</v>
       </c>
       <c r="G41">
-        <v>0.3161839535212917</v>
+        <v>0.3161839535212916</v>
       </c>
       <c r="H41">
         <v>0.3086606663835922</v>
@@ -4378,7 +4424,7 @@
         <v>0.3456630290922806</v>
       </c>
       <c r="D42">
-        <v>0.3063047905479773</v>
+        <v>0.3063047905479775</v>
       </c>
       <c r="E42">
         <v>0.2353451399583295</v>
@@ -4387,7 +4433,7 @@
         <v>0.2949207465656022</v>
       </c>
       <c r="H42">
-        <v>0.2273870461613098</v>
+        <v>0.2273870461613097</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4470,13 +4516,13 @@
         <v>0.3170053868195273</v>
       </c>
       <c r="D46">
-        <v>0.2491549383726292</v>
+        <v>0.2491549383726293</v>
       </c>
       <c r="E46">
         <v>0.1931445684695221</v>
       </c>
       <c r="G46">
-        <v>0.2933986764614371</v>
+        <v>0.2933986764614369</v>
       </c>
       <c r="H46">
         <v>0.197754909099594</v>
@@ -4513,19 +4559,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.28466734233243</v>
+        <v>0.2846673423324301</v>
       </c>
       <c r="D48">
         <v>0.2834981233877427</v>
       </c>
       <c r="E48">
-        <v>0.277507719859837</v>
+        <v>0.2775077198598372</v>
       </c>
       <c r="G48">
-        <v>0.2614037788566233</v>
+        <v>0.2614037788566234</v>
       </c>
       <c r="H48">
-        <v>0.2033945468843158</v>
+        <v>0.2033945468843157</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4539,16 +4585,16 @@
         <v>0.2372227693021994</v>
       </c>
       <c r="D49">
-        <v>0.3272349324344536</v>
+        <v>0.3272349324344533</v>
       </c>
       <c r="E49">
-        <v>0.3131337319324737</v>
+        <v>0.3131337319324736</v>
       </c>
       <c r="G49">
-        <v>0.2485595438162886</v>
+        <v>0.2485595438162883</v>
       </c>
       <c r="H49">
-        <v>0.1891387940054685</v>
+        <v>0.1891387940054686</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4611,10 +4657,10 @@
         <v>0.2433454459823073</v>
       </c>
       <c r="E52">
-        <v>0.2601822047279764</v>
+        <v>0.2601822047279765</v>
       </c>
       <c r="G52">
-        <v>0.2407086273903024</v>
+        <v>0.2407086273903023</v>
       </c>
       <c r="H52">
         <v>0.1732000337197546</v>
@@ -4628,16 +4674,16 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.2238354555072107</v>
+        <v>0.2238354555072108</v>
       </c>
       <c r="D53">
         <v>0.3313439374172071</v>
       </c>
       <c r="E53">
-        <v>0.2949372806803784</v>
+        <v>0.2949372806803785</v>
       </c>
       <c r="G53">
-        <v>0.234888481729997</v>
+        <v>0.2348884817299968</v>
       </c>
       <c r="H53">
         <v>0.1373176421697705</v>
@@ -4648,22 +4694,22 @@
         <v>44562</v>
       </c>
       <c r="I54">
-        <v>0.2579626354812146</v>
+        <v>0.2579626354812144</v>
       </c>
       <c r="J54">
-        <v>0.2859928477336831</v>
+        <v>0.2859928477336829</v>
       </c>
       <c r="K54">
-        <v>0.2598260746938975</v>
+        <v>0.2598260746938973</v>
       </c>
       <c r="L54">
-        <v>0.2322189330335476</v>
+        <v>0.2322189330335477</v>
       </c>
       <c r="M54">
-        <v>0.1939953182866578</v>
+        <v>0.1939953182866577</v>
       </c>
       <c r="N54">
-        <v>0.4725104349523305</v>
+        <v>0.4725104349523307</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4763,13 +4809,13 @@
         <v>45017</v>
       </c>
       <c r="I59">
-        <v>0.3076937153718921</v>
+        <v>0.3076937153718922</v>
       </c>
       <c r="J59">
         <v>0.263090697789708</v>
       </c>
       <c r="K59">
-        <v>0.2271683120735903</v>
+        <v>0.2271683120735904</v>
       </c>
       <c r="L59">
         <v>0.2410580337596334</v>
@@ -4798,7 +4844,7 @@
         <v>0.1928707431681563</v>
       </c>
       <c r="M60">
-        <v>0.1744378193101017</v>
+        <v>0.1744378193101018</v>
       </c>
       <c r="N60">
         <v>0.3747446360955501</v>
@@ -4809,22 +4855,22 @@
         <v>45200</v>
       </c>
       <c r="I61">
-        <v>0.2705745515043563</v>
+        <v>0.2705745515043564</v>
       </c>
       <c r="J61">
-        <v>0.2610065273239191</v>
+        <v>0.2610065273239193</v>
       </c>
       <c r="K61">
-        <v>0.2620267155211411</v>
+        <v>0.2620267155211412</v>
       </c>
       <c r="L61">
         <v>0.2035762111601891</v>
       </c>
       <c r="M61">
-        <v>0.1609715560114084</v>
+        <v>0.1609715560114083</v>
       </c>
       <c r="N61">
-        <v>0.4618514626418336</v>
+        <v>0.4618514626418337</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4924,22 +4970,45 @@
         <v>45658</v>
       </c>
       <c r="I66">
-        <v>0.3458977339176437</v>
+        <v>0.3458977410779598</v>
       </c>
       <c r="J66">
-        <v>0.2665060044517096</v>
+        <v>0.266506004909868</v>
       </c>
       <c r="K66">
-        <v>0.2474426820027814</v>
+        <v>0.2474426805905423</v>
       </c>
       <c r="L66">
-        <v>0.2249392180096195</v>
+        <v>0.2249392088258622</v>
       </c>
       <c r="M66">
-        <v>0.179518857702417</v>
+        <v>0.1795188575375681</v>
       </c>
       <c r="N66">
-        <v>0.438121053678425</v>
+        <v>0.4381210520759933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I67">
+        <v>0.2305304904542614</v>
+      </c>
+      <c r="J67">
+        <v>0.2568967644500452</v>
+      </c>
+      <c r="K67">
+        <v>0.2208660749829174</v>
+      </c>
+      <c r="L67">
+        <v>0.1916550513079602</v>
+      </c>
+      <c r="M67">
+        <v>0.142927492375348</v>
+      </c>
+      <c r="N67">
+        <v>0.3770342729148265</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +5018,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5127,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3330769695604643</v>
+        <v>0.3330769695604642</v>
       </c>
       <c r="D8">
         <v>0.2688955831812974</v>
@@ -5267,16 +5336,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3646109324130107</v>
+        <v>0.364610932413011</v>
       </c>
       <c r="D15">
         <v>0.3146016419338333</v>
       </c>
       <c r="E15">
-        <v>0.2379471440750213</v>
+        <v>0.2379471440750214</v>
       </c>
       <c r="F15">
-        <v>0.2806551859647092</v>
+        <v>0.2806551859647093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5407,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3550514861090501</v>
+        <v>0.3550514861090499</v>
       </c>
       <c r="D22">
-        <v>0.2988093602932141</v>
+        <v>0.2988093602932139</v>
       </c>
       <c r="E22">
         <v>0.2751839234175753</v>
       </c>
       <c r="F22">
-        <v>0.2190765227767641</v>
+        <v>0.2190765227767642</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5513,7 +5582,7 @@
         <v>0.2143476290419805</v>
       </c>
       <c r="E27">
-        <v>0.2066333099047315</v>
+        <v>0.2066333099047314</v>
       </c>
       <c r="F27">
         <v>0.2170874459030258</v>
@@ -5530,13 +5599,13 @@
         <v>0.300300729455332</v>
       </c>
       <c r="D28">
-        <v>0.276085089565964</v>
+        <v>0.2760850895659641</v>
       </c>
       <c r="E28">
         <v>0.3164873725194148</v>
       </c>
       <c r="F28">
-        <v>0.2636854196719559</v>
+        <v>0.263685419671956</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5547,16 +5616,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.3361059044048737</v>
+        <v>0.3361059044048736</v>
       </c>
       <c r="D29">
         <v>0.411106842532121</v>
       </c>
       <c r="E29">
-        <v>0.3010227772618407</v>
+        <v>0.3010227772618408</v>
       </c>
       <c r="F29">
-        <v>0.299377576757358</v>
+        <v>0.2993775767573581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5636,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.3933577762987582</v>
+        <v>0.3933577762987581</v>
       </c>
       <c r="D33">
         <v>0.4139183332051312</v>
@@ -5659,16 +5728,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.3601285789155059</v>
+        <v>0.3601285789155057</v>
       </c>
       <c r="D34">
         <v>0.3746630127007579</v>
       </c>
       <c r="E34">
-        <v>0.3119741329687619</v>
+        <v>0.311974132968762</v>
       </c>
       <c r="G34">
-        <v>0.3454569483417085</v>
+        <v>0.3454569483417084</v>
       </c>
       <c r="H34">
         <v>0.2725600746834048</v>
@@ -5682,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.3748888656864541</v>
+        <v>0.3748888656864543</v>
       </c>
       <c r="D35">
         <v>0.288571830373534</v>
       </c>
       <c r="E35">
-        <v>0.3141375564336898</v>
+        <v>0.3141375564336896</v>
       </c>
       <c r="G35">
         <v>0.2964042852249503</v>
@@ -5708,10 +5777,10 @@
         <v>0.3541399651515252</v>
       </c>
       <c r="D36">
-        <v>0.3148918447537343</v>
+        <v>0.3148918447537344</v>
       </c>
       <c r="E36">
-        <v>0.3467252862134392</v>
+        <v>0.3467252862134393</v>
       </c>
       <c r="G36">
         <v>0.3021660413827063</v>
@@ -5754,7 +5823,7 @@
         <v>0.4223532488613622</v>
       </c>
       <c r="D38">
-        <v>0.326381261182045</v>
+        <v>0.3263812611820449</v>
       </c>
       <c r="E38">
         <v>0.3316342775246974</v>
@@ -5846,13 +5915,13 @@
         <v>0.3896314140409654</v>
       </c>
       <c r="D42">
-        <v>0.4275913382609904</v>
+        <v>0.4275913382609907</v>
       </c>
       <c r="E42">
         <v>0.3463385516242146</v>
       </c>
       <c r="G42">
-        <v>0.3389774225176475</v>
+        <v>0.3389774225176476</v>
       </c>
       <c r="H42">
         <v>0.2733972081248208</v>
@@ -5869,10 +5938,10 @@
         <v>0.3456504847890512</v>
       </c>
       <c r="D43">
-        <v>0.3470226840992729</v>
+        <v>0.3470226840992731</v>
       </c>
       <c r="E43">
-        <v>0.3132151721831967</v>
+        <v>0.3132151721831968</v>
       </c>
       <c r="G43">
         <v>0.3696829091582426</v>
@@ -5987,10 +6056,10 @@
         <v>0.2322332006374054</v>
       </c>
       <c r="E48">
-        <v>0.2450364408657859</v>
+        <v>0.2450364408657861</v>
       </c>
       <c r="G48">
-        <v>0.2451428464295661</v>
+        <v>0.2451428464295662</v>
       </c>
       <c r="H48">
         <v>0.1404915458423861</v>
@@ -6004,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.2437214090357713</v>
+        <v>0.2437214090357714</v>
       </c>
       <c r="D49">
-        <v>0.2645567743328775</v>
+        <v>0.2645567743328772</v>
       </c>
       <c r="E49">
         <v>0.2969721428107625</v>
       </c>
       <c r="G49">
-        <v>0.2400485597036254</v>
+        <v>0.2400485597036252</v>
       </c>
       <c r="H49">
         <v>0.186573410165314</v>
@@ -6033,10 +6102,10 @@
         <v>0.251924645541347</v>
       </c>
       <c r="E50">
-        <v>0.2776599597290674</v>
+        <v>0.2776599597290675</v>
       </c>
       <c r="G50">
-        <v>0.2080851255341839</v>
+        <v>0.2080851255341838</v>
       </c>
       <c r="H50">
         <v>0.1445643185990849</v>
@@ -6116,22 +6185,22 @@
         <v>44562</v>
       </c>
       <c r="I54">
-        <v>0.2582049661070078</v>
+        <v>0.2582049661070076</v>
       </c>
       <c r="J54">
-        <v>0.29328263706194</v>
+        <v>0.2932826370619399</v>
       </c>
       <c r="K54">
-        <v>0.244693300373305</v>
+        <v>0.2446933003733049</v>
       </c>
       <c r="L54">
-        <v>0.2141788794125034</v>
+        <v>0.2141788794125035</v>
       </c>
       <c r="M54">
-        <v>0.1951734484125327</v>
+        <v>0.1951734484125326</v>
       </c>
       <c r="N54">
-        <v>0.4754187290591149</v>
+        <v>0.4754187290591151</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -6208,22 +6277,22 @@
         <v>44927</v>
       </c>
       <c r="I58">
-        <v>0.263404365726843</v>
+        <v>0.2634043657268429</v>
       </c>
       <c r="J58">
         <v>0.2483032199577067</v>
       </c>
       <c r="K58">
-        <v>0.2427088898866491</v>
+        <v>0.242708889886649</v>
       </c>
       <c r="L58">
-        <v>0.2335096243181269</v>
+        <v>0.2335096243181268</v>
       </c>
       <c r="M58">
         <v>0.2009335190956384</v>
       </c>
       <c r="N58">
-        <v>0.4423442060563994</v>
+        <v>0.4423442060563996</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -6280,7 +6349,7 @@
         <v>0.2905220226737756</v>
       </c>
       <c r="J61">
-        <v>0.2754642564588725</v>
+        <v>0.2754642564588727</v>
       </c>
       <c r="K61">
         <v>0.2321890765080246</v>
@@ -6289,10 +6358,10 @@
         <v>0.1767301493794572</v>
       </c>
       <c r="M61">
-        <v>0.1709976064380748</v>
+        <v>0.1709976064380747</v>
       </c>
       <c r="N61">
-        <v>0.4467548352677395</v>
+        <v>0.4467548352677396</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -6392,22 +6461,45 @@
         <v>45658</v>
       </c>
       <c r="I66">
-        <v>0.3451563920658266</v>
+        <v>0.3451563996280899</v>
       </c>
       <c r="J66">
-        <v>0.3047130476235181</v>
+        <v>0.3047130508578426</v>
       </c>
       <c r="K66">
-        <v>0.2530895291317187</v>
+        <v>0.2530895300177786</v>
       </c>
       <c r="L66">
-        <v>0.1856588197490849</v>
+        <v>0.185658812713031</v>
       </c>
       <c r="M66">
-        <v>0.188535744017739</v>
+        <v>0.1885357432597569</v>
       </c>
       <c r="N66">
-        <v>0.4446024077178913</v>
+        <v>0.4446023998165544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I67">
+        <v>0.3355223261014149</v>
+      </c>
+      <c r="J67">
+        <v>0.2417802286956997</v>
+      </c>
+      <c r="K67">
+        <v>0.2224370484967828</v>
+      </c>
+      <c r="L67">
+        <v>0.2262834110568949</v>
+      </c>
+      <c r="M67">
+        <v>0.1407318461085497</v>
+      </c>
+      <c r="N67">
+        <v>0.3896061299293632</v>
       </c>
     </row>
   </sheetData>
@@ -6417,7 +6509,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6571,13 +6663,13 @@
         <v>0.100172245507263</v>
       </c>
       <c r="C8">
-        <v>0.06446771952913652</v>
+        <v>0.06446771952913646</v>
       </c>
       <c r="D8">
-        <v>0.09533740955071678</v>
+        <v>0.09533740955071675</v>
       </c>
       <c r="E8">
-        <v>0.1070155523581597</v>
+        <v>0.1070155523581598</v>
       </c>
       <c r="F8">
         <v>0.1054250861707999</v>
@@ -6708,10 +6800,10 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.07129094412331406</v>
+        <v>0.07129094412331408</v>
       </c>
       <c r="C15">
-        <v>0.08797006283439326</v>
+        <v>0.08797006283439329</v>
       </c>
       <c r="D15">
         <v>0.1624791262788153</v>
@@ -6777,7 +6869,7 @@
         <v>0.08938944511198356</v>
       </c>
       <c r="E18">
-        <v>0.1429520945467084</v>
+        <v>0.1429520945467083</v>
       </c>
       <c r="F18">
         <v>0.1096129151933556</v>
@@ -6848,10 +6940,10 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.0867491487149543</v>
+        <v>0.08674914871495432</v>
       </c>
       <c r="C22">
-        <v>0.1264044429937441</v>
+        <v>0.1264044429937443</v>
       </c>
       <c r="D22">
         <v>0.2423236711535268</v>
@@ -6860,7 +6952,7 @@
         <v>0.1475483878283021</v>
       </c>
       <c r="F22">
-        <v>0.1287786618076461</v>
+        <v>0.1287786618076463</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6991,16 +7083,16 @@
         <v>0.2046149235840576</v>
       </c>
       <c r="C29">
-        <v>0.1155871072715298</v>
+        <v>0.1155871072715299</v>
       </c>
       <c r="D29">
         <v>0.3179695037109446</v>
       </c>
       <c r="E29">
-        <v>0.1788330247839545</v>
+        <v>0.1788330247839544</v>
       </c>
       <c r="F29">
-        <v>0.1610928993313789</v>
+        <v>0.1610928993313791</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7111,16 +7203,16 @@
         <v>0.1978608002713621</v>
       </c>
       <c r="C35">
-        <v>0.1393221323000687</v>
+        <v>0.1393221323000688</v>
       </c>
       <c r="D35">
         <v>0.1679377645206794</v>
       </c>
       <c r="E35">
-        <v>0.2404711109766168</v>
+        <v>0.240471110976617</v>
       </c>
       <c r="F35">
-        <v>0.2102046296051346</v>
+        <v>0.2102046296051344</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,16 +7223,16 @@
         <v>0.2097207903936018</v>
       </c>
       <c r="C36">
-        <v>0.1562036467148778</v>
+        <v>0.156203646714878</v>
       </c>
       <c r="D36">
-        <v>0.2088833090064441</v>
+        <v>0.208883309006444</v>
       </c>
       <c r="E36">
-        <v>0.2351238015816393</v>
+        <v>0.2351238015816392</v>
       </c>
       <c r="F36">
-        <v>0.1950133182986401</v>
+        <v>0.1950133182986402</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7234,7 +7326,7 @@
         <v>0.1666422261669518</v>
       </c>
       <c r="D41">
-        <v>0.203549121258538</v>
+        <v>0.2035491212585379</v>
       </c>
       <c r="E41">
         <v>0.2766402253328304</v>
@@ -7251,16 +7343,16 @@
         <v>0.2134611126994073</v>
       </c>
       <c r="C42">
-        <v>0.2267111804699733</v>
+        <v>0.226711180469973</v>
       </c>
       <c r="D42">
         <v>0.1777102161272858</v>
       </c>
       <c r="E42">
-        <v>0.2470449554221217</v>
+        <v>0.2470449554221218</v>
       </c>
       <c r="F42">
-        <v>0.2387834650244416</v>
+        <v>0.2387834650244414</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7334,10 +7426,10 @@
         <v>0.2417540260431101</v>
       </c>
       <c r="D46">
-        <v>0.1897503289296318</v>
+        <v>0.1897503289296319</v>
       </c>
       <c r="E46">
-        <v>0.3042849566819225</v>
+        <v>0.3042849566819224</v>
       </c>
       <c r="F46">
         <v>0.2052758283652825</v>
@@ -7371,13 +7463,13 @@
         <v>0.148058864268458</v>
       </c>
       <c r="C48">
-        <v>0.1544529170763705</v>
+        <v>0.1544529170763704</v>
       </c>
       <c r="D48">
         <v>0.1500044555199443</v>
       </c>
       <c r="E48">
-        <v>0.16424900605001</v>
+        <v>0.1642490060500099</v>
       </c>
       <c r="F48">
         <v>0.1487162397762114</v>
@@ -7391,16 +7483,16 @@
         <v>0.1175290094147987</v>
       </c>
       <c r="C49">
-        <v>0.1694097853738965</v>
+        <v>0.1694097853738966</v>
       </c>
       <c r="D49">
         <v>0.1606150472574906</v>
       </c>
       <c r="E49">
-        <v>0.1428533203864256</v>
+        <v>0.1428533203864255</v>
       </c>
       <c r="F49">
-        <v>0.1441209033535298</v>
+        <v>0.1441209033535301</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7543,7 @@
         <v>0.159007281354356</v>
       </c>
       <c r="C52">
-        <v>0.1560515866444871</v>
+        <v>0.156051586644487</v>
       </c>
       <c r="D52">
         <v>0.1512131517605581</v>
@@ -7491,13 +7583,13 @@
         <v>0.124805632618254</v>
       </c>
       <c r="C54">
-        <v>0.1242498666916767</v>
+        <v>0.1242498666916764</v>
       </c>
       <c r="D54">
         <v>0.1257866696043161</v>
       </c>
       <c r="E54">
-        <v>0.150464852632707</v>
+        <v>0.1504648526327071</v>
       </c>
       <c r="F54">
         <v>0.116853832122293</v>
@@ -7594,7 +7686,7 @@
         <v>0.1369057202531178</v>
       </c>
       <c r="D59">
-        <v>0.1418294510682649</v>
+        <v>0.1418294510682648</v>
       </c>
       <c r="E59">
         <v>0.1458844827782289</v>
@@ -7611,7 +7703,7 @@
         <v>0.09023818436809403</v>
       </c>
       <c r="C60">
-        <v>0.1093147610040091</v>
+        <v>0.109314761004009</v>
       </c>
       <c r="D60">
         <v>0.1463022816513047</v>
@@ -7628,7 +7720,7 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.1700200886630018</v>
+        <v>0.1700200886630019</v>
       </c>
       <c r="C61">
         <v>0.1286230159413284</v>
@@ -7640,7 +7732,7 @@
         <v>0.1884296696154383</v>
       </c>
       <c r="F61">
-        <v>0.1330162425746361</v>
+        <v>0.133016242574636</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7728,19 +7820,39 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.1200206851801341</v>
+        <v>0.1200206842264425</v>
       </c>
       <c r="C66">
-        <v>0.1233895458389305</v>
+        <v>0.1233895465524086</v>
       </c>
       <c r="D66">
-        <v>0.1502773240608955</v>
+        <v>0.1502773212840087</v>
       </c>
       <c r="E66">
-        <v>0.127205474117228</v>
+        <v>0.127205474051993</v>
       </c>
       <c r="F66">
-        <v>0.1158338264168554</v>
+        <v>0.1158338276337841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.1323620292103617</v>
+      </c>
+      <c r="C67">
+        <v>0.09974566415542516</v>
+      </c>
+      <c r="D67">
+        <v>0.11533057220609</v>
+      </c>
+      <c r="E67">
+        <v>0.1206277616924635</v>
+      </c>
+      <c r="F67">
+        <v>0.1215350071781409</v>
       </c>
     </row>
   </sheetData>
@@ -7750,7 +7862,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7904,16 +8016,16 @@
         <v>0.1864213125107653</v>
       </c>
       <c r="C8">
-        <v>0.1838871828617387</v>
+        <v>0.1838871828617385</v>
       </c>
       <c r="D8">
-        <v>0.2319169639961077</v>
+        <v>0.2319169639961076</v>
       </c>
       <c r="E8">
-        <v>0.2571308755160621</v>
+        <v>0.2571308755160622</v>
       </c>
       <c r="F8">
-        <v>0.2176301435579181</v>
+        <v>0.2176301435579182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8041,19 +8153,19 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.2566259238712217</v>
+        <v>0.2566259238712218</v>
       </c>
       <c r="C15">
         <v>0.2452740352071469</v>
       </c>
       <c r="D15">
-        <v>0.2672923984465472</v>
+        <v>0.2672923984465471</v>
       </c>
       <c r="E15">
         <v>0.2426356501353387</v>
       </c>
       <c r="F15">
-        <v>0.1903657959967332</v>
+        <v>0.1903657959967333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8064,13 +8176,13 @@
         <v>0.2314818767877726</v>
       </c>
       <c r="C16">
-        <v>0.2142183401347818</v>
+        <v>0.2142183401347819</v>
       </c>
       <c r="D16">
-        <v>0.2686121915356302</v>
+        <v>0.2686121915356301</v>
       </c>
       <c r="E16">
-        <v>0.2611996467109557</v>
+        <v>0.2611996467109558</v>
       </c>
       <c r="F16">
         <v>0.2370051592383666</v>
@@ -8184,16 +8296,16 @@
         <v>0.1787117666510759</v>
       </c>
       <c r="C22">
-        <v>0.218314639521885</v>
+        <v>0.2183146395218852</v>
       </c>
       <c r="D22">
-        <v>0.3381762932364743</v>
+        <v>0.3381762932364744</v>
       </c>
       <c r="E22">
-        <v>0.2650152505281936</v>
+        <v>0.2650152505281935</v>
       </c>
       <c r="F22">
-        <v>0.2380288145951694</v>
+        <v>0.2380288145951697</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8207,7 +8319,7 @@
         <v>0.2586634042488015</v>
       </c>
       <c r="D23">
-        <v>0.2931394414648598</v>
+        <v>0.2931394414648597</v>
       </c>
       <c r="E23">
         <v>0.3369770666506335</v>
@@ -8321,19 +8433,19 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.3300988912196584</v>
+        <v>0.3300988912196583</v>
       </c>
       <c r="C29">
-        <v>0.2101925386433191</v>
+        <v>0.2101925386433193</v>
       </c>
       <c r="D29">
         <v>0.3876002559930719</v>
       </c>
       <c r="E29">
-        <v>0.2852386562369659</v>
+        <v>0.2852386562369658</v>
       </c>
       <c r="F29">
-        <v>0.2609441564255487</v>
+        <v>0.2609441564255491</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8347,13 +8459,13 @@
         <v>0.2923169550939291</v>
       </c>
       <c r="D30">
-        <v>0.2691847390359338</v>
+        <v>0.2691847390359336</v>
       </c>
       <c r="E30">
-        <v>0.345569775613061</v>
+        <v>0.3455697756130611</v>
       </c>
       <c r="F30">
-        <v>0.2720907111861302</v>
+        <v>0.2720907111861303</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8444,16 +8556,16 @@
         <v>0.301945748045122</v>
       </c>
       <c r="C35">
-        <v>0.2418729683122238</v>
+        <v>0.2418729683122241</v>
       </c>
       <c r="D35">
         <v>0.3021536408093216</v>
       </c>
       <c r="E35">
-        <v>0.4449465057044374</v>
+        <v>0.4449465057044378</v>
       </c>
       <c r="F35">
-        <v>0.3287147866375699</v>
+        <v>0.3287147866375698</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8464,16 +8576,16 @@
         <v>0.3025855300508956</v>
       </c>
       <c r="C36">
-        <v>0.2900940668420914</v>
+        <v>0.2900940668420917</v>
       </c>
       <c r="D36">
-        <v>0.3187651356123536</v>
+        <v>0.3187651356123535</v>
       </c>
       <c r="E36">
-        <v>0.4014861327596806</v>
+        <v>0.4014861327596804</v>
       </c>
       <c r="F36">
-        <v>0.3197186239396416</v>
+        <v>0.3197186239396417</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8567,13 +8679,13 @@
         <v>0.3212726238190283</v>
       </c>
       <c r="D41">
-        <v>0.3583899081922532</v>
+        <v>0.3583899081922533</v>
       </c>
       <c r="E41">
-        <v>0.4426435188430911</v>
+        <v>0.4426435188430908</v>
       </c>
       <c r="F41">
-        <v>0.3751434960577218</v>
+        <v>0.375143496057722</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8584,16 +8696,16 @@
         <v>0.2787733167827198</v>
       </c>
       <c r="C42">
-        <v>0.3456480659519457</v>
+        <v>0.3456480659519454</v>
       </c>
       <c r="D42">
         <v>0.3131864239750817</v>
       </c>
       <c r="E42">
-        <v>0.4650018845665937</v>
+        <v>0.4650018845665939</v>
       </c>
       <c r="F42">
-        <v>0.4052595743358422</v>
+        <v>0.4052595743358419</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8664,16 +8776,16 @@
         <v>0.3214866550823172</v>
       </c>
       <c r="C46">
-        <v>0.3614301008802732</v>
+        <v>0.3614301008802734</v>
       </c>
       <c r="D46">
-        <v>0.3333791554103108</v>
+        <v>0.3333791554103107</v>
       </c>
       <c r="E46">
         <v>0.4916439126617083</v>
       </c>
       <c r="F46">
-        <v>0.3142541190638831</v>
+        <v>0.3142541190638832</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8704,16 +8816,16 @@
         <v>0.3117453262672458</v>
       </c>
       <c r="C48">
-        <v>0.2970152874515615</v>
+        <v>0.2970152874515613</v>
       </c>
       <c r="D48">
         <v>0.257114537974548</v>
       </c>
       <c r="E48">
-        <v>0.2976501892354285</v>
+        <v>0.2976501892354282</v>
       </c>
       <c r="F48">
-        <v>0.3027218044860627</v>
+        <v>0.3027218044860628</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8721,19 +8833,19 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.3086091680173283</v>
+        <v>0.3086091680173282</v>
       </c>
       <c r="C49">
-        <v>0.3299029130132293</v>
+        <v>0.3299029130132296</v>
       </c>
       <c r="D49">
-        <v>0.321511725864162</v>
+        <v>0.3215117258641619</v>
       </c>
       <c r="E49">
-        <v>0.2384475162962876</v>
+        <v>0.2384475162962874</v>
       </c>
       <c r="F49">
-        <v>0.2547669452997453</v>
+        <v>0.2547669452997457</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8787,13 +8899,13 @@
         <v>0.286962988685627</v>
       </c>
       <c r="D52">
-        <v>0.2705172628955659</v>
+        <v>0.270517262895566</v>
       </c>
       <c r="E52">
         <v>0.217979208007528</v>
       </c>
       <c r="F52">
-        <v>0.2468377443200892</v>
+        <v>0.2468377443200891</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8804,16 +8916,16 @@
         <v>0.2777074466371243</v>
       </c>
       <c r="C53">
-        <v>0.2769176167969203</v>
+        <v>0.2769176167969202</v>
       </c>
       <c r="D53">
-        <v>0.2808666859546688</v>
+        <v>0.2808666859546689</v>
       </c>
       <c r="E53">
         <v>0.2716722733664748</v>
       </c>
       <c r="F53">
-        <v>0.2377841634402451</v>
+        <v>0.237784163440245</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8824,16 +8936,16 @@
         <v>0.2721304751747647</v>
       </c>
       <c r="C54">
-        <v>0.2961080365030461</v>
+        <v>0.2961080365030453</v>
       </c>
       <c r="D54">
-        <v>0.2313514148970132</v>
+        <v>0.2313514148970131</v>
       </c>
       <c r="E54">
-        <v>0.3111690619566282</v>
+        <v>0.3111690619566284</v>
       </c>
       <c r="F54">
-        <v>0.2411534851140858</v>
+        <v>0.2411534851140857</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8924,16 +9036,16 @@
         <v>0.3077765551257964</v>
       </c>
       <c r="C59">
-        <v>0.2328353733723072</v>
+        <v>0.2328353733723073</v>
       </c>
       <c r="D59">
-        <v>0.2306109410144953</v>
+        <v>0.2306109410144952</v>
       </c>
       <c r="E59">
         <v>0.2404025978882923</v>
       </c>
       <c r="F59">
-        <v>0.2303503755604971</v>
+        <v>0.230350375560497</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8941,13 +9053,13 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.2492146262923341</v>
+        <v>0.2492146262923342</v>
       </c>
       <c r="C60">
         <v>0.2352944637431937</v>
       </c>
       <c r="D60">
-        <v>0.2359063679232372</v>
+        <v>0.2359063679232371</v>
       </c>
       <c r="E60">
         <v>0.2246200332711302</v>
@@ -8973,7 +9085,7 @@
         <v>0.2679284436639706</v>
       </c>
       <c r="F61">
-        <v>0.2317063468191471</v>
+        <v>0.2317063468191469</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9061,19 +9173,39 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2506818860936442</v>
+        <v>0.250681886031154</v>
       </c>
       <c r="C66">
-        <v>0.2385942760167724</v>
+        <v>0.2385942723989904</v>
       </c>
       <c r="D66">
-        <v>0.2630748718933653</v>
+        <v>0.263074868418107</v>
       </c>
       <c r="E66">
-        <v>0.2305870261484474</v>
+        <v>0.2305870262309498</v>
       </c>
       <c r="F66">
-        <v>0.2312395332480562</v>
+        <v>0.2312395350151586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.2527497162659044</v>
+      </c>
+      <c r="C67">
+        <v>0.1951011319379278</v>
+      </c>
+      <c r="D67">
+        <v>0.2036669096747968</v>
+      </c>
+      <c r="E67">
+        <v>0.2512131609936162</v>
+      </c>
+      <c r="F67">
+        <v>0.1821978248806681</v>
       </c>
     </row>
   </sheetData>
@@ -9083,7 +9215,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9237,13 +9369,13 @@
         <v>0.224102887983005</v>
       </c>
       <c r="C8">
-        <v>0.2616180448928858</v>
+        <v>0.2616180448928856</v>
       </c>
       <c r="D8">
-        <v>0.3040399416759379</v>
+        <v>0.3040399416759377</v>
       </c>
       <c r="E8">
-        <v>0.3624545395388519</v>
+        <v>0.362454539538852</v>
       </c>
       <c r="F8">
         <v>0.2982882305800273</v>
@@ -9354,7 +9486,7 @@
         <v>40909</v>
       </c>
       <c r="B14">
-        <v>0.2798329503819164</v>
+        <v>0.2798329503819165</v>
       </c>
       <c r="C14">
         <v>0.3155789713900174</v>
@@ -9377,16 +9509,16 @@
         <v>0.3358387468160371</v>
       </c>
       <c r="C15">
-        <v>0.3135791893101219</v>
+        <v>0.313579189310122</v>
       </c>
       <c r="D15">
-        <v>0.3969014120552539</v>
+        <v>0.3969014120552536</v>
       </c>
       <c r="E15">
         <v>0.3382712134425104</v>
       </c>
       <c r="F15">
-        <v>0.2847434556474146</v>
+        <v>0.2847434556474147</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9514,19 +9646,19 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.2765611361192126</v>
+        <v>0.2765611361192127</v>
       </c>
       <c r="C22">
-        <v>0.3150275520687396</v>
+        <v>0.3150275520687399</v>
       </c>
       <c r="D22">
-        <v>0.4306024420546178</v>
+        <v>0.4306024420546181</v>
       </c>
       <c r="E22">
-        <v>0.3952381312339134</v>
+        <v>0.3952381312339132</v>
       </c>
       <c r="F22">
-        <v>0.2929884673713755</v>
+        <v>0.2929884673713757</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9626,7 +9758,7 @@
         <v>0.3149583991888587</v>
       </c>
       <c r="F27">
-        <v>0.286743212264039</v>
+        <v>0.2867432122640389</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9634,19 +9766,19 @@
         <v>42186</v>
       </c>
       <c r="B28">
-        <v>0.2038341517140103</v>
+        <v>0.2038341517140104</v>
       </c>
       <c r="C28">
-        <v>0.2973608299407505</v>
+        <v>0.2973608299407507</v>
       </c>
       <c r="D28">
-        <v>0.4109960567294625</v>
+        <v>0.4109960567294624</v>
       </c>
       <c r="E28">
-        <v>0.3655522187454058</v>
+        <v>0.3655522187454057</v>
       </c>
       <c r="F28">
-        <v>0.3687147748841209</v>
+        <v>0.3687147748841207</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9657,16 +9789,16 @@
         <v>0.4359124962541205</v>
       </c>
       <c r="C29">
-        <v>0.3272072211676289</v>
+        <v>0.3272072211676292</v>
       </c>
       <c r="D29">
-        <v>0.4365318669982269</v>
+        <v>0.4365318669982268</v>
       </c>
       <c r="E29">
-        <v>0.3321064531944006</v>
+        <v>0.3321064531944005</v>
       </c>
       <c r="F29">
-        <v>0.4463471341718772</v>
+        <v>0.4463471341718778</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9743,10 +9875,10 @@
         <v>0.3638756850387007</v>
       </c>
       <c r="E33">
-        <v>0.5353155480276333</v>
+        <v>0.5353155480276334</v>
       </c>
       <c r="F33">
-        <v>0.4176619505068763</v>
+        <v>0.4176619505068762</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9760,10 +9892,10 @@
         <v>0.3681064008157844</v>
       </c>
       <c r="D34">
-        <v>0.4170889970262061</v>
+        <v>0.4170889970262059</v>
       </c>
       <c r="E34">
-        <v>0.5216756191083346</v>
+        <v>0.5216756191083345</v>
       </c>
       <c r="F34">
         <v>0.4064010131966543</v>
@@ -9777,16 +9909,16 @@
         <v>0.425827069023311</v>
       </c>
       <c r="C35">
-        <v>0.3181911617257417</v>
+        <v>0.3181911617257421</v>
       </c>
       <c r="D35">
-        <v>0.3980039798561533</v>
+        <v>0.3980039798561532</v>
       </c>
       <c r="E35">
-        <v>0.4575648869215124</v>
+        <v>0.4575648869215127</v>
       </c>
       <c r="F35">
-        <v>0.3989410546279133</v>
+        <v>0.3989410546279131</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9797,16 +9929,16 @@
         <v>0.3765597179182414</v>
       </c>
       <c r="C36">
-        <v>0.3979716271745861</v>
+        <v>0.3979716271745863</v>
       </c>
       <c r="D36">
-        <v>0.3828955333437823</v>
+        <v>0.3828955333437821</v>
       </c>
       <c r="E36">
-        <v>0.4603880317788941</v>
+        <v>0.4603880317788938</v>
       </c>
       <c r="F36">
-        <v>0.3947117730065715</v>
+        <v>0.3947117730065716</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9837,16 +9969,16 @@
         <v>0.3432073912471793</v>
       </c>
       <c r="C38">
-        <v>0.3471571017102635</v>
+        <v>0.3471571017102636</v>
       </c>
       <c r="D38">
-        <v>0.3753473480735635</v>
+        <v>0.375347348073564</v>
       </c>
       <c r="E38">
-        <v>0.4600783406578954</v>
+        <v>0.4600783406578953</v>
       </c>
       <c r="F38">
-        <v>0.3977391101786589</v>
+        <v>0.3977391101786586</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9917,16 +10049,16 @@
         <v>0.3756475869159671</v>
       </c>
       <c r="C42">
-        <v>0.4449353328555957</v>
+        <v>0.4449353328555952</v>
       </c>
       <c r="D42">
         <v>0.3783260849764748</v>
       </c>
       <c r="E42">
-        <v>0.5329406003895423</v>
+        <v>0.5329406003895425</v>
       </c>
       <c r="F42">
-        <v>0.4623185521749885</v>
+        <v>0.4623185521749882</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9937,13 +10069,13 @@
         <v>0.3024494250485955</v>
       </c>
       <c r="C43">
-        <v>0.4529151390036492</v>
+        <v>0.4529151390036493</v>
       </c>
       <c r="D43">
-        <v>0.3889312100283115</v>
+        <v>0.3889312100283116</v>
       </c>
       <c r="E43">
-        <v>0.5468894160696428</v>
+        <v>0.5468894160696429</v>
       </c>
       <c r="F43">
         <v>0.4516650914213357</v>
@@ -10037,13 +10169,13 @@
         <v>0.3147711393599198</v>
       </c>
       <c r="C48">
-        <v>0.2482823707715386</v>
+        <v>0.2482823707715384</v>
       </c>
       <c r="D48">
         <v>0.2341417051287914</v>
       </c>
       <c r="E48">
-        <v>0.3600617008927653</v>
+        <v>0.360061700892765</v>
       </c>
       <c r="F48">
         <v>0.2619551993818047</v>
@@ -10057,16 +10189,16 @@
         <v>0.2656374830850619</v>
       </c>
       <c r="C49">
-        <v>0.2847193818402816</v>
+        <v>0.2847193818402818</v>
       </c>
       <c r="D49">
-        <v>0.3166054842504911</v>
+        <v>0.3166054842504909</v>
       </c>
       <c r="E49">
-        <v>0.2315044649725574</v>
+        <v>0.2315044649725573</v>
       </c>
       <c r="F49">
-        <v>0.2522351965677864</v>
+        <v>0.2522351965677868</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10074,19 +10206,19 @@
         <v>44197</v>
       </c>
       <c r="B50">
-        <v>0.2460401114663858</v>
+        <v>0.2460401114663859</v>
       </c>
       <c r="C50">
-        <v>0.2515918664597224</v>
+        <v>0.2515918664597223</v>
       </c>
       <c r="D50">
         <v>0.2614213242534019</v>
       </c>
       <c r="E50">
-        <v>0.2329153265426308</v>
+        <v>0.2329153265426309</v>
       </c>
       <c r="F50">
-        <v>0.197794089409047</v>
+        <v>0.1977940894090471</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -10157,16 +10289,16 @@
         <v>0.2334679846064432</v>
       </c>
       <c r="C54">
-        <v>0.2811533358373158</v>
+        <v>0.2811533358373152</v>
       </c>
       <c r="D54">
         <v>0.2557929967262068</v>
       </c>
       <c r="E54">
-        <v>0.2927142209967629</v>
+        <v>0.2927142209967631</v>
       </c>
       <c r="F54">
-        <v>0.2371871011094064</v>
+        <v>0.2371871011094063</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10237,13 +10369,13 @@
         <v>0.2588498938319683</v>
       </c>
       <c r="C58">
-        <v>0.260831225813826</v>
+        <v>0.2608312258138259</v>
       </c>
       <c r="D58">
-        <v>0.2410290222612637</v>
+        <v>0.2410290222612636</v>
       </c>
       <c r="E58">
-        <v>0.2773929581976493</v>
+        <v>0.2773929581976494</v>
       </c>
       <c r="F58">
         <v>0.2247825622859498</v>
@@ -10294,7 +10426,7 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.2209656582669316</v>
+        <v>0.2209656582669317</v>
       </c>
       <c r="C61">
         <v>0.247522956013408</v>
@@ -10303,10 +10435,10 @@
         <v>0.2022250796202596</v>
       </c>
       <c r="E61">
-        <v>0.3000109423250976</v>
+        <v>0.3000109423250975</v>
       </c>
       <c r="F61">
-        <v>0.2049810431199872</v>
+        <v>0.204981043119987</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -10394,19 +10526,39 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2262513527445174</v>
+        <v>0.226251354303067</v>
       </c>
       <c r="C66">
-        <v>0.2445515819972275</v>
+        <v>0.2445515785426843</v>
       </c>
       <c r="D66">
-        <v>0.2833189115653981</v>
+        <v>0.2833189072040232</v>
       </c>
       <c r="E66">
-        <v>0.2424439471723616</v>
+        <v>0.2424439472796105</v>
       </c>
       <c r="F66">
-        <v>0.2247116989886246</v>
+        <v>0.2247117026972474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.2871969053436839</v>
+      </c>
+      <c r="C67">
+        <v>0.1924372031278706</v>
+      </c>
+      <c r="D67">
+        <v>0.1919200349375191</v>
+      </c>
+      <c r="E67">
+        <v>0.2596901074236542</v>
+      </c>
+      <c r="F67">
+        <v>0.2130854341172604</v>
       </c>
     </row>
   </sheetData>
@@ -10416,7 +10568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10588,16 +10740,16 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.2292928176076903</v>
+        <v>0.2292928176076902</v>
       </c>
       <c r="C8">
-        <v>0.1763031302296573</v>
+        <v>0.1763031302296572</v>
       </c>
       <c r="D8">
         <v>0.171778750666246</v>
       </c>
       <c r="E8">
-        <v>0.189676877885019</v>
+        <v>0.1896768778850189</v>
       </c>
       <c r="F8">
         <v>0.2029662827591543</v>
@@ -10758,13 +10910,13 @@
         <v>0.1892300317434336</v>
       </c>
       <c r="E15">
-        <v>0.1960006620424008</v>
+        <v>0.196000662042401</v>
       </c>
       <c r="F15">
-        <v>0.2552164850050183</v>
+        <v>0.2552164850050184</v>
       </c>
       <c r="G15">
-        <v>0.3178144707313098</v>
+        <v>0.31781447073131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10910,22 +11062,22 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.2775128140198909</v>
+        <v>0.2775128140198912</v>
       </c>
       <c r="C22">
         <v>0.2180298137744947</v>
       </c>
       <c r="D22">
-        <v>0.2008856971507836</v>
+        <v>0.2008856971507837</v>
       </c>
       <c r="E22">
-        <v>0.2175920882563368</v>
+        <v>0.2175920882563367</v>
       </c>
       <c r="F22">
-        <v>0.2209684107730447</v>
+        <v>0.2209684107730445</v>
       </c>
       <c r="G22">
-        <v>0.3289704273613548</v>
+        <v>0.328970427361355</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10942,13 +11094,13 @@
         <v>0.2892295561721936</v>
       </c>
       <c r="E23">
-        <v>0.2332632060102439</v>
+        <v>0.2332632060102438</v>
       </c>
       <c r="F23">
-        <v>0.2784411128781515</v>
+        <v>0.2784411128781514</v>
       </c>
       <c r="G23">
-        <v>0.3753267057035019</v>
+        <v>0.3753267057035022</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -11071,22 +11223,22 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.2676189255215343</v>
+        <v>0.2676189255215342</v>
       </c>
       <c r="C29">
         <v>0.2278296462808709</v>
       </c>
       <c r="D29">
-        <v>0.2324857291126103</v>
+        <v>0.2324857291126102</v>
       </c>
       <c r="E29">
-        <v>0.2560808932203637</v>
+        <v>0.2560808932203635</v>
       </c>
       <c r="F29">
-        <v>0.2774174303082336</v>
+        <v>0.2774174303082335</v>
       </c>
       <c r="G29">
-        <v>0.3727199312018946</v>
+        <v>0.3727199312018944</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -11094,7 +11246,7 @@
         <v>42370</v>
       </c>
       <c r="B30">
-        <v>0.3389847285541558</v>
+        <v>0.3389847285541557</v>
       </c>
       <c r="C30">
         <v>0.265489392058966</v>
@@ -11106,10 +11258,10 @@
         <v>0.2092795645445231</v>
       </c>
       <c r="F30">
-        <v>0.2740025302307811</v>
+        <v>0.2740025302307812</v>
       </c>
       <c r="G30">
-        <v>0.362039148718359</v>
+        <v>0.3620391487183589</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -11212,19 +11364,19 @@
         <v>0.353098437347911</v>
       </c>
       <c r="C35">
-        <v>0.2735195364059776</v>
+        <v>0.2735195364059779</v>
       </c>
       <c r="D35">
-        <v>0.2843464702877282</v>
+        <v>0.2843464702877284</v>
       </c>
       <c r="E35">
-        <v>0.2552593380474135</v>
+        <v>0.2552593380474134</v>
       </c>
       <c r="F35">
-        <v>0.3433077662513104</v>
+        <v>0.34330776625131</v>
       </c>
       <c r="G35">
-        <v>0.3729920146812077</v>
+        <v>0.3729920146812071</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11232,10 +11384,10 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.3038658172103985</v>
+        <v>0.3038658172103982</v>
       </c>
       <c r="C36">
-        <v>0.3018782480223369</v>
+        <v>0.301878248022337</v>
       </c>
       <c r="D36">
         <v>0.2454981751952621</v>
@@ -11247,7 +11399,7 @@
         <v>0.3036496902160012</v>
       </c>
       <c r="G36">
-        <v>0.4171369759639924</v>
+        <v>0.4171369759639925</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11350,16 +11502,16 @@
         <v>0.3480904028113395</v>
       </c>
       <c r="C41">
-        <v>0.3965531166257107</v>
+        <v>0.3965531166257105</v>
       </c>
       <c r="D41">
         <v>0.3000597045595408</v>
       </c>
       <c r="E41">
-        <v>0.3108995898832823</v>
+        <v>0.3108995898832821</v>
       </c>
       <c r="F41">
-        <v>0.3675858678520965</v>
+        <v>0.3675858678520964</v>
       </c>
       <c r="G41">
         <v>0.4356268652144613</v>
@@ -11373,19 +11525,19 @@
         <v>0.3612495584321994</v>
       </c>
       <c r="C42">
-        <v>0.3297410020373818</v>
+        <v>0.329741002037382</v>
       </c>
       <c r="D42">
-        <v>0.3591372070893435</v>
+        <v>0.3591372070893437</v>
       </c>
       <c r="E42">
-        <v>0.3070172585429037</v>
+        <v>0.3070172585429036</v>
       </c>
       <c r="F42">
         <v>0.3786209850080807</v>
       </c>
       <c r="G42">
-        <v>0.4405468075520395</v>
+        <v>0.44054680755204</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -11465,7 +11617,7 @@
         <v>0.3582975600984911</v>
       </c>
       <c r="C46">
-        <v>0.3591696110791844</v>
+        <v>0.3591696110791843</v>
       </c>
       <c r="D46">
         <v>0.3062426308242857</v>
@@ -11474,7 +11626,7 @@
         <v>0.3331768557841204</v>
       </c>
       <c r="F46">
-        <v>0.3869427054628232</v>
+        <v>0.3869427054628231</v>
       </c>
       <c r="G46">
         <v>0.4137996100250155</v>
@@ -11508,22 +11660,22 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.2473178268981548</v>
+        <v>0.247317826898155</v>
       </c>
       <c r="C48">
-        <v>0.2504884284111754</v>
+        <v>0.2504884284111752</v>
       </c>
       <c r="D48">
         <v>0.2620453457172046</v>
       </c>
       <c r="E48">
-        <v>0.3245434016907701</v>
+        <v>0.32454340169077</v>
       </c>
       <c r="F48">
         <v>0.4030183860370039</v>
       </c>
       <c r="G48">
-        <v>0.2672615851582151</v>
+        <v>0.2672615851582154</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -11531,22 +11683,22 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.2341805042050011</v>
+        <v>0.234180504205001</v>
       </c>
       <c r="C49">
-        <v>0.2366692794208742</v>
+        <v>0.236669279420874</v>
       </c>
       <c r="D49">
-        <v>0.2888605889639554</v>
+        <v>0.2888605889639552</v>
       </c>
       <c r="E49">
         <v>0.2948110286300786</v>
       </c>
       <c r="F49">
-        <v>0.3489100449371622</v>
+        <v>0.3489100449371625</v>
       </c>
       <c r="G49">
-        <v>0.3417329324952163</v>
+        <v>0.3417329324952159</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -11609,13 +11761,13 @@
         <v>0.2686355545655935</v>
       </c>
       <c r="E52">
-        <v>0.2851837134263593</v>
+        <v>0.2851837134263595</v>
       </c>
       <c r="F52">
         <v>0.2965644975374606</v>
       </c>
       <c r="G52">
-        <v>0.2614007442869044</v>
+        <v>0.2614007442869045</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -11629,7 +11781,7 @@
         <v>0.1788345400940297</v>
       </c>
       <c r="D53">
-        <v>0.2744436107312756</v>
+        <v>0.2744436107312757</v>
       </c>
       <c r="E53">
         <v>0.2696028744812435</v>
@@ -11638,7 +11790,7 @@
         <v>0.3247477661824332</v>
       </c>
       <c r="G53">
-        <v>0.3645423582737841</v>
+        <v>0.3645423582737838</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -11646,22 +11798,22 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.3090536066294712</v>
+        <v>0.3090536066294714</v>
       </c>
       <c r="C54">
-        <v>0.2208056639245786</v>
+        <v>0.2208056639245783</v>
       </c>
       <c r="D54">
-        <v>0.2868079865214789</v>
+        <v>0.2868079865214798</v>
       </c>
       <c r="E54">
-        <v>0.3185798621198794</v>
+        <v>0.3185798621198796</v>
       </c>
       <c r="F54">
-        <v>0.2874759005605577</v>
+        <v>0.2874759005605573</v>
       </c>
       <c r="G54">
-        <v>0.1576952290885686</v>
+        <v>0.1576952290885684</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -11761,13 +11913,13 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.2780520333714958</v>
+        <v>0.2780520333714959</v>
       </c>
       <c r="C59">
         <v>0.1937222246502184</v>
       </c>
       <c r="D59">
-        <v>0.2602259902784316</v>
+        <v>0.2602259902784317</v>
       </c>
       <c r="E59">
         <v>0.2671102000675201</v>
@@ -11784,16 +11936,16 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.2792484076256967</v>
+        <v>0.2792484076256969</v>
       </c>
       <c r="C60">
         <v>0.1700982945671995</v>
       </c>
       <c r="D60">
-        <v>0.2521110207295924</v>
+        <v>0.2521110207295925</v>
       </c>
       <c r="E60">
-        <v>0.2585331539444218</v>
+        <v>0.2585331539444217</v>
       </c>
       <c r="F60">
         <v>0.1989462245601357</v>
@@ -11810,7 +11962,7 @@
         <v>0.3073229450766554</v>
       </c>
       <c r="C61">
-        <v>0.2004930077271182</v>
+        <v>0.2004930077271183</v>
       </c>
       <c r="D61">
         <v>0.2381731654535758</v>
@@ -11819,7 +11971,7 @@
         <v>0.2234618067734563</v>
       </c>
       <c r="F61">
-        <v>0.2664705743833911</v>
+        <v>0.2664705743833909</v>
       </c>
       <c r="G61">
         <v>0.1848773392564405</v>
@@ -11922,22 +12074,45 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2647734898097637</v>
+        <v>0.2647734922299953</v>
       </c>
       <c r="C66">
-        <v>0.1983909734424034</v>
+        <v>0.1983909676846838</v>
       </c>
       <c r="D66">
-        <v>0.2641372949688818</v>
+        <v>0.2641372911169494</v>
       </c>
       <c r="E66">
-        <v>0.2831586723497646</v>
+        <v>0.283158667940243</v>
       </c>
       <c r="F66">
-        <v>0.2694794405153404</v>
+        <v>0.2694794445938944</v>
       </c>
       <c r="G66">
-        <v>0.1717651247540541</v>
+        <v>0.171765128658868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.2317493478174383</v>
+      </c>
+      <c r="C67">
+        <v>0.1961161757810351</v>
+      </c>
+      <c r="D67">
+        <v>0.1913683946435038</v>
+      </c>
+      <c r="E67">
+        <v>0.2488189805645921</v>
+      </c>
+      <c r="F67">
+        <v>0.2250574401821835</v>
+      </c>
+      <c r="G67">
+        <v>0.135787725348245</v>
       </c>
     </row>
   </sheetData>
@@ -11947,7 +12122,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12119,19 +12294,19 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.2981086301877711</v>
+        <v>0.298108630187771</v>
       </c>
       <c r="C8">
-        <v>0.2754713252684687</v>
+        <v>0.2754713252684686</v>
       </c>
       <c r="D8">
-        <v>0.2337336554295397</v>
+        <v>0.2337336554295396</v>
       </c>
       <c r="E8">
-        <v>0.2738844593649464</v>
+        <v>0.2738844593649462</v>
       </c>
       <c r="F8">
-        <v>0.2992022395165658</v>
+        <v>0.2992022395165657</v>
       </c>
       <c r="G8">
         <v>0.3630625012276325</v>
@@ -12257,7 +12432,7 @@
         <v>40909</v>
       </c>
       <c r="B14">
-        <v>0.3150481851623239</v>
+        <v>0.3150481851623237</v>
       </c>
       <c r="C14">
         <v>0.3208705887753325</v>
@@ -12272,7 +12447,7 @@
         <v>0.3230823284399393</v>
       </c>
       <c r="G14">
-        <v>0.4590529291374215</v>
+        <v>0.4590529291374216</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12286,16 +12461,16 @@
         <v>0.300418528989055</v>
       </c>
       <c r="D15">
-        <v>0.2570048930485973</v>
+        <v>0.2570048930485972</v>
       </c>
       <c r="E15">
-        <v>0.2722318352116279</v>
+        <v>0.272231835211628</v>
       </c>
       <c r="F15">
-        <v>0.3663576196124396</v>
+        <v>0.3663576196124397</v>
       </c>
       <c r="G15">
-        <v>0.4469402339489224</v>
+        <v>0.4469402339489226</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12441,22 +12616,22 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.3309640858168222</v>
+        <v>0.3309640858168227</v>
       </c>
       <c r="C22">
-        <v>0.2649789583025094</v>
+        <v>0.2649789583025093</v>
       </c>
       <c r="D22">
-        <v>0.2799590418478169</v>
+        <v>0.2799590418478171</v>
       </c>
       <c r="E22">
-        <v>0.3176238859757336</v>
+        <v>0.3176238859757335</v>
       </c>
       <c r="F22">
-        <v>0.3275804809920708</v>
+        <v>0.3275804809920707</v>
       </c>
       <c r="G22">
-        <v>0.4468689958280616</v>
+        <v>0.4468689958280618</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12556,7 +12731,7 @@
         <v>42095</v>
       </c>
       <c r="B27">
-        <v>0.2945742125633254</v>
+        <v>0.2945742125633253</v>
       </c>
       <c r="C27">
         <v>0.2692292738947227</v>
@@ -12565,10 +12740,10 @@
         <v>0.2247518252899352</v>
       </c>
       <c r="E27">
-        <v>0.2827626969348317</v>
+        <v>0.2827626969348316</v>
       </c>
       <c r="F27">
-        <v>0.2476701768385653</v>
+        <v>0.2476701768385655</v>
       </c>
       <c r="G27">
         <v>0.3990071565130816</v>
@@ -12591,10 +12766,10 @@
         <v>0.2837342898376092</v>
       </c>
       <c r="F28">
-        <v>0.3439513754081964</v>
+        <v>0.3439513754081963</v>
       </c>
       <c r="G28">
-        <v>0.4101243015167064</v>
+        <v>0.4101243015167065</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12602,22 +12777,22 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.363094093431052</v>
+        <v>0.3630940934310518</v>
       </c>
       <c r="C29">
-        <v>0.330141920764719</v>
+        <v>0.3301419207647192</v>
       </c>
       <c r="D29">
-        <v>0.3439920743501439</v>
+        <v>0.3439920743501438</v>
       </c>
       <c r="E29">
-        <v>0.3935788811332075</v>
+        <v>0.3935788811332073</v>
       </c>
       <c r="F29">
-        <v>0.3575625070482997</v>
+        <v>0.3575625070482995</v>
       </c>
       <c r="G29">
-        <v>0.5390193411294998</v>
+        <v>0.5390193411294996</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12720,19 +12895,19 @@
         <v>0.4175478766657489</v>
       </c>
       <c r="C34">
-        <v>0.3962145406985578</v>
+        <v>0.3962145406985579</v>
       </c>
       <c r="D34">
-        <v>0.372669945247149</v>
+        <v>0.3726699452471489</v>
       </c>
       <c r="E34">
-        <v>0.3918469157010722</v>
+        <v>0.3918469157010719</v>
       </c>
       <c r="F34">
         <v>0.3748896971215595</v>
       </c>
       <c r="G34">
-        <v>0.5017552875863984</v>
+        <v>0.5017552875863981</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -12743,19 +12918,19 @@
         <v>0.3968899433332257</v>
       </c>
       <c r="C35">
-        <v>0.3422306130807782</v>
+        <v>0.3422306130807784</v>
       </c>
       <c r="D35">
-        <v>0.3421012254833756</v>
+        <v>0.3421012254833758</v>
       </c>
       <c r="E35">
-        <v>0.3479116925214227</v>
+        <v>0.3479116925214225</v>
       </c>
       <c r="F35">
-        <v>0.4095979082188189</v>
+        <v>0.4095979082188185</v>
       </c>
       <c r="G35">
-        <v>0.4757132865633106</v>
+        <v>0.4757132865633102</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -12763,10 +12938,10 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.3911710677471916</v>
+        <v>0.3911710677471913</v>
       </c>
       <c r="C36">
-        <v>0.3642471828414015</v>
+        <v>0.3642471828414016</v>
       </c>
       <c r="D36">
         <v>0.3691643302760128</v>
@@ -12778,7 +12953,7 @@
         <v>0.3824315023455739</v>
       </c>
       <c r="G36">
-        <v>0.5057415310649861</v>
+        <v>0.5057415310649862</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12812,13 +12987,13 @@
         <v>0.4005856067977917</v>
       </c>
       <c r="C38">
-        <v>0.3511354399569484</v>
+        <v>0.3511354399569483</v>
       </c>
       <c r="D38">
         <v>0.3318458886976766</v>
       </c>
       <c r="E38">
-        <v>0.384995298892377</v>
+        <v>0.3849952988923771</v>
       </c>
       <c r="F38">
         <v>0.3610401276952571</v>
@@ -12904,19 +13079,19 @@
         <v>0.4281580031542347</v>
       </c>
       <c r="C42">
-        <v>0.3906157484476566</v>
+        <v>0.3906157484476568</v>
       </c>
       <c r="D42">
-        <v>0.3927052488179414</v>
+        <v>0.3927052488179415</v>
       </c>
       <c r="E42">
-        <v>0.3832662895900911</v>
+        <v>0.383266289590091</v>
       </c>
       <c r="F42">
-        <v>0.4734321873840747</v>
+        <v>0.4734321873840746</v>
       </c>
       <c r="G42">
-        <v>0.5514093173827554</v>
+        <v>0.5514093173827561</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12924,22 +13099,22 @@
         <v>43556</v>
       </c>
       <c r="B43">
-        <v>0.3901742190099336</v>
+        <v>0.3901742190099337</v>
       </c>
       <c r="C43">
         <v>0.4549911974368656</v>
       </c>
       <c r="D43">
-        <v>0.4127436120441427</v>
+        <v>0.4127436120441425</v>
       </c>
       <c r="E43">
-        <v>0.4102911229502226</v>
+        <v>0.4102911229502229</v>
       </c>
       <c r="F43">
-        <v>0.4742510535898181</v>
+        <v>0.4742510535898179</v>
       </c>
       <c r="G43">
-        <v>0.4907115301328318</v>
+        <v>0.4907115301328315</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -13039,22 +13214,22 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.2001539519876663</v>
+        <v>0.2001539519876665</v>
       </c>
       <c r="C48">
-        <v>0.2330464945105082</v>
+        <v>0.233046494510508</v>
       </c>
       <c r="D48">
         <v>0.2485470224313489</v>
       </c>
       <c r="E48">
-        <v>0.2822185638506974</v>
+        <v>0.2822185638506973</v>
       </c>
       <c r="F48">
         <v>0.3589492497993726</v>
       </c>
       <c r="G48">
-        <v>0.2876181947527311</v>
+        <v>0.2876181947527314</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -13065,19 +13240,19 @@
         <v>0.191214238742536</v>
       </c>
       <c r="C49">
-        <v>0.2224568480135102</v>
+        <v>0.2224568480135101</v>
       </c>
       <c r="D49">
-        <v>0.2977010033778215</v>
+        <v>0.2977010033778213</v>
       </c>
       <c r="E49">
-        <v>0.2914212884834569</v>
+        <v>0.2914212884834571</v>
       </c>
       <c r="F49">
-        <v>0.323501546998136</v>
+        <v>0.3235015469981364</v>
       </c>
       <c r="G49">
-        <v>0.3103131815875358</v>
+        <v>0.3103131815875355</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -13085,22 +13260,22 @@
         <v>44197</v>
       </c>
       <c r="B50">
-        <v>0.1507223080230047</v>
+        <v>0.1507223080230046</v>
       </c>
       <c r="C50">
         <v>0.1837616594692566</v>
       </c>
       <c r="D50">
-        <v>0.2321586148982273</v>
+        <v>0.2321586148982271</v>
       </c>
       <c r="E50">
-        <v>0.2646731332891196</v>
+        <v>0.2646731332891193</v>
       </c>
       <c r="F50">
-        <v>0.2603278308937216</v>
+        <v>0.2603278308937217</v>
       </c>
       <c r="G50">
-        <v>0.3014771332253596</v>
+        <v>0.3014771332253594</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -13177,22 +13352,22 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.303441976189876</v>
+        <v>0.3034419761898762</v>
       </c>
       <c r="C54">
-        <v>0.2151458687612876</v>
+        <v>0.2151458687612874</v>
       </c>
       <c r="D54">
-        <v>0.2700609406628233</v>
+        <v>0.2700609406628241</v>
       </c>
       <c r="E54">
-        <v>0.3288850659789613</v>
+        <v>0.3288850659789616</v>
       </c>
       <c r="F54">
-        <v>0.2876429893643139</v>
+        <v>0.2876429893643136</v>
       </c>
       <c r="G54">
-        <v>0.146891124266415</v>
+        <v>0.1468911242664148</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -13275,13 +13450,13 @@
         <v>0.186353815388909</v>
       </c>
       <c r="D58">
-        <v>0.245102124779987</v>
+        <v>0.2451021247799869</v>
       </c>
       <c r="E58">
-        <v>0.2942257277715504</v>
+        <v>0.2942257277715505</v>
       </c>
       <c r="F58">
-        <v>0.294120288617834</v>
+        <v>0.2941202886178341</v>
       </c>
       <c r="G58">
         <v>0.1524637239992183</v>
@@ -13341,13 +13516,13 @@
         <v>0.3554640307178026</v>
       </c>
       <c r="C61">
-        <v>0.1876379060115403</v>
+        <v>0.1876379060115404</v>
       </c>
       <c r="D61">
-        <v>0.2049127785739138</v>
+        <v>0.2049127785739139</v>
       </c>
       <c r="E61">
-        <v>0.2284267431672931</v>
+        <v>0.228426743167293</v>
       </c>
       <c r="F61">
         <v>0.2661768927423153</v>
@@ -13453,22 +13628,45 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.3037954039434201</v>
+        <v>0.3037954060746352</v>
       </c>
       <c r="C66">
-        <v>0.1856284648644172</v>
+        <v>0.1856284627866047</v>
       </c>
       <c r="D66">
-        <v>0.2601782417492368</v>
+        <v>0.2601782399672763</v>
       </c>
       <c r="E66">
-        <v>0.2923936648810763</v>
+        <v>0.292393662363085</v>
       </c>
       <c r="F66">
-        <v>0.2826139662233725</v>
+        <v>0.2826139680370988</v>
       </c>
       <c r="G66">
-        <v>0.1569913036056584</v>
+        <v>0.1569913055779799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.3244351914525723</v>
+      </c>
+      <c r="C67">
+        <v>0.1690495999855866</v>
+      </c>
+      <c r="D67">
+        <v>0.184600929268713</v>
+      </c>
+      <c r="E67">
+        <v>0.2442875359695172</v>
+      </c>
+      <c r="F67">
+        <v>0.2570131938052684</v>
+      </c>
+      <c r="G67">
+        <v>0.1139605159815653</v>
       </c>
     </row>
   </sheetData>
@@ -13478,7 +13676,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13566,10 +13764,10 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.07137859167037353</v>
+        <v>0.07137859167037354</v>
       </c>
       <c r="C8">
-        <v>0.1227058070644585</v>
+        <v>0.1227058070644584</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13588,7 +13786,7 @@
         <v>40544</v>
       </c>
       <c r="B10">
-        <v>0.07482891295124434</v>
+        <v>0.07482891295124436</v>
       </c>
       <c r="C10">
         <v>0.122597815546707</v>
@@ -13643,10 +13841,10 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.08729974090491326</v>
+        <v>0.08729974090491328</v>
       </c>
       <c r="C15">
-        <v>0.1327283759863369</v>
+        <v>0.132728375986337</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13679,7 +13877,7 @@
         <v>0.08541974406418619</v>
       </c>
       <c r="C18">
-        <v>0.1343680717621822</v>
+        <v>0.1343680717621823</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13797,10 +13995,10 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.1517770444188319</v>
+        <v>0.1517770444188321</v>
       </c>
       <c r="C29">
-        <v>0.2224251227778932</v>
+        <v>0.2224251227778933</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13811,7 +14009,7 @@
         <v>0.1612012706516839</v>
       </c>
       <c r="C30">
-        <v>0.2075076804661869</v>
+        <v>0.2075076804661867</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13863,10 +14061,10 @@
         <v>42826</v>
       </c>
       <c r="B35">
-        <v>0.1733567151545327</v>
+        <v>0.1733567151545326</v>
       </c>
       <c r="C35">
-        <v>0.201968608052327</v>
+        <v>0.2019686080523273</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13877,7 +14075,7 @@
         <v>0.1757744593528172</v>
       </c>
       <c r="C36">
-        <v>0.2244751067178365</v>
+        <v>0.2244751067178367</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13929,7 +14127,7 @@
         <v>43374</v>
       </c>
       <c r="B41">
-        <v>0.1808401680407432</v>
+        <v>0.1808401680407431</v>
       </c>
       <c r="C41">
         <v>0.2343194546537568</v>
@@ -13940,10 +14138,10 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.1969846582983389</v>
+        <v>0.1969846582983392</v>
       </c>
       <c r="C42">
-        <v>0.2544216677920841</v>
+        <v>0.2544216677920846</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -13973,7 +14171,7 @@
         <v>43739</v>
       </c>
       <c r="B45">
-        <v>0.2369739827253067</v>
+        <v>0.2369739827253066</v>
       </c>
       <c r="C45">
         <v>0.2658750525902844</v>
@@ -13987,7 +14185,7 @@
         <v>0.2087716512314887</v>
       </c>
       <c r="C46">
-        <v>0.2562853165586903</v>
+        <v>0.2562853165586902</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14006,10 +14204,10 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.1374832897551253</v>
+        <v>0.1374832897551252</v>
       </c>
       <c r="C48">
-        <v>0.1747443406853433</v>
+        <v>0.1747443406853434</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -14017,7 +14215,7 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.1352041304942647</v>
+        <v>0.1352041304942645</v>
       </c>
       <c r="C49">
         <v>0.1800103355549003</v>
@@ -14053,7 +14251,7 @@
         <v>0.1303688697649465</v>
       </c>
       <c r="C52">
-        <v>0.1575387188445018</v>
+        <v>0.1575387188445019</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -14072,10 +14270,10 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.1133138039199508</v>
+        <v>0.1133138039199506</v>
       </c>
       <c r="C54">
-        <v>0.1381700148512603</v>
+        <v>0.1381700148512599</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14152,7 +14350,7 @@
         <v>0.1103764375073265</v>
       </c>
       <c r="C61">
-        <v>0.1691668084465814</v>
+        <v>0.1691668084465813</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -14204,10 +14402,21 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.1083101579283595</v>
+        <v>0.1083101563788977</v>
       </c>
       <c r="C66">
-        <v>0.1471486901433488</v>
+        <v>0.1471486910704297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.09211379220916843</v>
+      </c>
+      <c r="C67">
+        <v>0.1373503443123848</v>
       </c>
     </row>
   </sheetData>
@@ -14217,7 +14426,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14305,10 +14514,10 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.1848692946023528</v>
+        <v>0.1848692946023529</v>
       </c>
       <c r="C8">
-        <v>0.2542507315842882</v>
+        <v>0.254250731584288</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14382,10 +14591,10 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.1916498669141146</v>
+        <v>0.1916498669141147</v>
       </c>
       <c r="C15">
-        <v>0.2816402785740014</v>
+        <v>0.2816402785740016</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14393,10 +14602,10 @@
         <v>41091</v>
       </c>
       <c r="B16">
-        <v>0.1964748588282158</v>
+        <v>0.1964748588282159</v>
       </c>
       <c r="C16">
-        <v>0.2972595005750814</v>
+        <v>0.2972595005750815</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14462,7 +14671,7 @@
         <v>0.2122731039822607</v>
       </c>
       <c r="C22">
-        <v>0.2943834560327677</v>
+        <v>0.2943834560327676</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14473,7 +14682,7 @@
         <v>0.2576506590311791</v>
       </c>
       <c r="C23">
-        <v>0.3336797964658375</v>
+        <v>0.3336797964658376</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14536,7 +14745,7 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.2371262109984431</v>
+        <v>0.2371262109984434</v>
       </c>
       <c r="C29">
         <v>0.3358649789029535</v>
@@ -14547,10 +14756,10 @@
         <v>42370</v>
       </c>
       <c r="B30">
-        <v>0.2628563910812399</v>
+        <v>0.26285639108124</v>
       </c>
       <c r="C30">
-        <v>0.3284028086008576</v>
+        <v>0.3284028086008578</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14605,7 +14814,7 @@
         <v>0.2936814336584855</v>
       </c>
       <c r="C35">
-        <v>0.3453175662542646</v>
+        <v>0.3453175662542652</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14613,10 +14822,10 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.2909231134104625</v>
+        <v>0.2909231134104624</v>
       </c>
       <c r="C36">
-        <v>0.370042364497427</v>
+        <v>0.3700423644974272</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14671,7 +14880,7 @@
         <v>0.3482939784518906</v>
       </c>
       <c r="C41">
-        <v>0.3854604366293174</v>
+        <v>0.3854604366293176</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -14679,10 +14888,10 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.3414801249878508</v>
+        <v>0.3414801249878514</v>
       </c>
       <c r="C42">
-        <v>0.4015672022627318</v>
+        <v>0.4015672022627325</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -14723,10 +14932,10 @@
         <v>43831</v>
       </c>
       <c r="B46">
-        <v>0.3432092987330224</v>
+        <v>0.3432092987330223</v>
       </c>
       <c r="C46">
-        <v>0.3886519537806699</v>
+        <v>0.38865195378067</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14745,10 +14954,10 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.2689807940452987</v>
+        <v>0.2689807940452985</v>
       </c>
       <c r="C48">
-        <v>0.3202232667348502</v>
+        <v>0.3202232667348504</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -14756,7 +14965,7 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.2533956675737741</v>
+        <v>0.2533956675737739</v>
       </c>
       <c r="C49">
         <v>0.3540804045811629</v>
@@ -14800,10 +15009,10 @@
         <v>44470</v>
       </c>
       <c r="B53">
-        <v>0.2203104486275065</v>
+        <v>0.2203104486275066</v>
       </c>
       <c r="C53">
-        <v>0.3400199168872187</v>
+        <v>0.3400199168872188</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -14811,10 +15020,10 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.2234849448384686</v>
+        <v>0.2234849448384683</v>
       </c>
       <c r="C54">
-        <v>0.3035772070980853</v>
+        <v>0.3035772070980844</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14866,7 +15075,7 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.2064405616317167</v>
+        <v>0.2064405616317165</v>
       </c>
       <c r="C59">
         <v>0.2695427349960092</v>
@@ -14877,10 +15086,10 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.1954430517986635</v>
+        <v>0.1954430517986634</v>
       </c>
       <c r="C60">
-        <v>0.2435410480186136</v>
+        <v>0.2435410480186135</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -14891,7 +15100,7 @@
         <v>0.1949203727883234</v>
       </c>
       <c r="C61">
-        <v>0.274156322417112</v>
+        <v>0.2741563224171119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -14943,10 +15152,21 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2048979073235387</v>
+        <v>0.2048979038021488</v>
       </c>
       <c r="C66">
-        <v>0.2782130301800009</v>
+        <v>0.2782130308084525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.1586011003207605</v>
+      </c>
+      <c r="C67">
+        <v>0.2517375544081739</v>
       </c>
     </row>
   </sheetData>
@@ -14956,7 +15176,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15044,7 +15264,7 @@
         <v>40360</v>
       </c>
       <c r="B8">
-        <v>0.2601046576136664</v>
+        <v>0.2601046576136665</v>
       </c>
       <c r="C8">
         <v>0.3365947712495331</v>
@@ -15121,10 +15341,10 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.2798828454991846</v>
+        <v>0.2798828454991847</v>
       </c>
       <c r="C15">
-        <v>0.3785499454844224</v>
+        <v>0.3785499454844227</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15198,10 +15418,10 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.2919595125237701</v>
+        <v>0.29195951252377</v>
       </c>
       <c r="C22">
-        <v>0.3880315431749866</v>
+        <v>0.3880315431749865</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -15267,7 +15487,7 @@
         <v>0.3136475342333956</v>
       </c>
       <c r="C28">
-        <v>0.3848146553553777</v>
+        <v>0.3848146553553775</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15275,10 +15495,10 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.3520077270991355</v>
+        <v>0.3520077270991359</v>
       </c>
       <c r="C29">
-        <v>0.4622158501386557</v>
+        <v>0.4622158501386558</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15322,7 +15542,7 @@
         <v>0.3738278867879463</v>
       </c>
       <c r="C33">
-        <v>0.4602505007992847</v>
+        <v>0.4602505007992846</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15330,10 +15550,10 @@
         <v>42736</v>
       </c>
       <c r="B34">
-        <v>0.3826497303880965</v>
+        <v>0.3826497303880964</v>
       </c>
       <c r="C34">
-        <v>0.4611440491995963</v>
+        <v>0.4611440491995962</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15341,10 +15561,10 @@
         <v>42826</v>
       </c>
       <c r="B35">
-        <v>0.3646199886952853</v>
+        <v>0.3646199886952852</v>
       </c>
       <c r="C35">
-        <v>0.4250149812496769</v>
+        <v>0.4250149812496776</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15352,10 +15572,10 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.3686576378400799</v>
+        <v>0.3686576378400798</v>
       </c>
       <c r="C36">
-        <v>0.4502116837646182</v>
+        <v>0.4502116837646185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15374,7 +15594,7 @@
         <v>43101</v>
       </c>
       <c r="B38">
-        <v>0.3521174954496746</v>
+        <v>0.3521174954496749</v>
       </c>
       <c r="C38">
         <v>0.4292734832932409</v>
@@ -15418,10 +15638,10 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.4054724284924597</v>
+        <v>0.4054724284924603</v>
       </c>
       <c r="C42">
-        <v>0.4940525540166855</v>
+        <v>0.4940525540166864</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15429,10 +15649,10 @@
         <v>43556</v>
       </c>
       <c r="B43">
-        <v>0.4248961901267494</v>
+        <v>0.4248961901267493</v>
       </c>
       <c r="C43">
-        <v>0.4655477581590839</v>
+        <v>0.465547758159084</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15484,10 +15704,10 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.2491564793849775</v>
+        <v>0.2491564793849772</v>
       </c>
       <c r="C48">
-        <v>0.2974249929407689</v>
+        <v>0.297424992940769</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15495,10 +15715,10 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.2363915925321273</v>
+        <v>0.236391592532127</v>
       </c>
       <c r="C49">
-        <v>0.3346631318806351</v>
+        <v>0.334663131880635</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -15506,10 +15726,10 @@
         <v>44197</v>
       </c>
       <c r="B50">
-        <v>0.2086507897555936</v>
+        <v>0.2086507897555937</v>
       </c>
       <c r="C50">
-        <v>0.2808932735197325</v>
+        <v>0.2808932735197327</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -15550,10 +15770,10 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.2238390570908892</v>
+        <v>0.2238390570908889</v>
       </c>
       <c r="C54">
-        <v>0.2946167904242841</v>
+        <v>0.2946167904242833</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -15594,10 +15814,10 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>0.2187607163994382</v>
+        <v>0.2187607163994385</v>
       </c>
       <c r="C58">
-        <v>0.2771683525962123</v>
+        <v>0.2771683525962124</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -15627,10 +15847,10 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.1838165563612653</v>
+        <v>0.1838165563612652</v>
       </c>
       <c r="C61">
-        <v>0.2724595283502462</v>
+        <v>0.2724595283502461</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -15682,10 +15902,21 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2021919724971179</v>
+        <v>0.2021919694072978</v>
       </c>
       <c r="C66">
-        <v>0.2892886041499865</v>
+        <v>0.2892886054242239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.1658079163866805</v>
+      </c>
+      <c r="C67">
+        <v>0.2619648324659168</v>
       </c>
     </row>
   </sheetData>
@@ -15695,7 +15926,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15828,7 +16059,7 @@
         <v>0.0793739073241623</v>
       </c>
       <c r="C8">
-        <v>0.07524063168645803</v>
+        <v>0.07524063168645809</v>
       </c>
       <c r="D8">
         <v>0.08247783612852221</v>
@@ -15862,7 +16093,7 @@
         <v>0.05290532890587597</v>
       </c>
       <c r="C10">
-        <v>0.09839550724947144</v>
+        <v>0.09839550724947146</v>
       </c>
       <c r="D10">
         <v>0.08489087660707408</v>
@@ -15944,13 +16175,13 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.05220300178071736</v>
+        <v>0.05220300178071739</v>
       </c>
       <c r="C15">
-        <v>0.07948641542506574</v>
+        <v>0.07948641542506571</v>
       </c>
       <c r="D15">
-        <v>0.1039056115107914</v>
+        <v>0.1039056115107913</v>
       </c>
       <c r="E15">
         <v>0.1735585056659842</v>
@@ -16066,13 +16297,13 @@
         <v>0.1054968507390477</v>
       </c>
       <c r="C22">
-        <v>0.1234647360022686</v>
+        <v>0.1234647360022687</v>
       </c>
       <c r="D22">
         <v>0.1181435984252522</v>
       </c>
       <c r="E22">
-        <v>0.2181223440840721</v>
+        <v>0.2181223440840724</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16123,7 +16354,7 @@
         <v>0.1740331491712706</v>
       </c>
       <c r="E25">
-        <v>0.2506328881882259</v>
+        <v>0.2506328881882258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -16182,13 +16413,13 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.09553495480824775</v>
+        <v>0.09553495480824771</v>
       </c>
       <c r="C29">
-        <v>0.1652992698269421</v>
+        <v>0.1652992698269423</v>
       </c>
       <c r="D29">
-        <v>0.165943313185846</v>
+        <v>0.1659433131858459</v>
       </c>
       <c r="E29">
         <v>0.2718722205356811</v>
@@ -16208,7 +16439,7 @@
         <v>0.1919411776653784</v>
       </c>
       <c r="E30">
-        <v>0.2363978322126872</v>
+        <v>0.2363978322126871</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -16219,13 +16450,13 @@
         <v>0.1545477756430095</v>
       </c>
       <c r="C31">
-        <v>0.1536663794454947</v>
+        <v>0.1536663794454948</v>
       </c>
       <c r="D31">
         <v>0.1759821808811803</v>
       </c>
       <c r="E31">
-        <v>0.1922700667404595</v>
+        <v>0.1922700667404594</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -16284,10 +16515,10 @@
         <v>42826</v>
       </c>
       <c r="B35">
-        <v>0.1487503356878377</v>
+        <v>0.1487503356878376</v>
       </c>
       <c r="C35">
-        <v>0.178852846846651</v>
+        <v>0.1788528468466511</v>
       </c>
       <c r="D35">
         <v>0.1937634719782051</v>
@@ -16304,13 +16535,13 @@
         <v>0.1310924280528888</v>
       </c>
       <c r="C36">
-        <v>0.1657129429912325</v>
+        <v>0.1657129429912324</v>
       </c>
       <c r="D36">
-        <v>0.2290965268144802</v>
+        <v>0.2290965268144803</v>
       </c>
       <c r="E36">
-        <v>0.2477959239904514</v>
+        <v>0.2477959239904513</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -16386,16 +16617,16 @@
         <v>43374</v>
       </c>
       <c r="B41">
-        <v>0.1537897848024732</v>
+        <v>0.1537897848024731</v>
       </c>
       <c r="C41">
         <v>0.1911874953839331</v>
       </c>
       <c r="D41">
-        <v>0.2044953442964109</v>
+        <v>0.2044953442964108</v>
       </c>
       <c r="E41">
-        <v>0.2500270356366724</v>
+        <v>0.2500270356366723</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -16403,16 +16634,16 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.1780735721082656</v>
+        <v>0.1780735721082655</v>
       </c>
       <c r="C42">
-        <v>0.2054221418518538</v>
+        <v>0.2054221418518534</v>
       </c>
       <c r="D42">
         <v>0.2548276792094926</v>
       </c>
       <c r="E42">
-        <v>0.2403555175801494</v>
+        <v>0.2403555175801489</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -16460,7 +16691,7 @@
         <v>0.2129493961442453</v>
       </c>
       <c r="D45">
-        <v>0.3075080493801917</v>
+        <v>0.3075080493801916</v>
       </c>
       <c r="E45">
         <v>0.2688469295625727</v>
@@ -16471,16 +16702,16 @@
         <v>43831</v>
       </c>
       <c r="B46">
-        <v>0.1840464130130555</v>
+        <v>0.1840464130130554</v>
       </c>
       <c r="C46">
         <v>0.2216202104981161</v>
       </c>
       <c r="D46">
-        <v>0.2178107133662714</v>
+        <v>0.2178107133662715</v>
       </c>
       <c r="E46">
-        <v>0.2757873135934125</v>
+        <v>0.2757873135934128</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -16505,13 +16736,13 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.07848037535892556</v>
+        <v>0.07848037535892555</v>
       </c>
       <c r="C48">
-        <v>0.1436199298071084</v>
+        <v>0.1436199298071083</v>
       </c>
       <c r="D48">
-        <v>0.1664162054211507</v>
+        <v>0.1664162054211508</v>
       </c>
       <c r="E48">
         <v>0.208499360912489</v>
@@ -16522,16 +16753,16 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.1121750503592049</v>
+        <v>0.112175050359205</v>
       </c>
       <c r="C49">
-        <v>0.1431920690406962</v>
+        <v>0.1431920690406964</v>
       </c>
       <c r="D49">
-        <v>0.1582570242281413</v>
+        <v>0.1582570242281414</v>
       </c>
       <c r="E49">
-        <v>0.1897655441124474</v>
+        <v>0.1897655441124476</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -16576,7 +16807,7 @@
         <v>0.1070297024248579</v>
       </c>
       <c r="C52">
-        <v>0.1483132733319612</v>
+        <v>0.1483132733319611</v>
       </c>
       <c r="D52">
         <v>0.1293390683153466</v>
@@ -16607,16 +16838,16 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.09628233325197369</v>
+        <v>0.09628233325197363</v>
       </c>
       <c r="C54">
-        <v>0.131467952994969</v>
+        <v>0.1314679529949689</v>
       </c>
       <c r="D54">
-        <v>0.126266669687924</v>
+        <v>0.1262666696879241</v>
       </c>
       <c r="E54">
-        <v>0.1541459012149715</v>
+        <v>0.1541459012149713</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -16701,7 +16932,7 @@
         <v>0.1251832789214988</v>
       </c>
       <c r="E59">
-        <v>0.1931429038384052</v>
+        <v>0.1931429038384053</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -16709,7 +16940,7 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.07801027781423139</v>
+        <v>0.07801027781423135</v>
       </c>
       <c r="C60">
         <v>0.1276560118501871</v>
@@ -16726,10 +16957,10 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.1101347058170865</v>
+        <v>0.1101347058170866</v>
       </c>
       <c r="C61">
-        <v>0.1358790284009512</v>
+        <v>0.135879028400951</v>
       </c>
       <c r="D61">
         <v>0.1257522393142389</v>
@@ -16811,16 +17042,33 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.09130707290786134</v>
+        <v>0.09130707357229627</v>
       </c>
       <c r="C66">
-        <v>0.12547562901769</v>
+        <v>0.1254756290535331</v>
       </c>
       <c r="D66">
-        <v>0.1217287648734333</v>
+        <v>0.1217287614659881</v>
       </c>
       <c r="E66">
-        <v>0.1820184662323455</v>
+        <v>0.1820184681765626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.06205413199448749</v>
+      </c>
+      <c r="C67">
+        <v>0.1099042980669231</v>
+      </c>
+      <c r="D67">
+        <v>0.1331252051407253</v>
+      </c>
+      <c r="E67">
+        <v>0.1667488326068916</v>
       </c>
     </row>
   </sheetData>
@@ -16830,7 +17078,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16963,13 +17211,13 @@
         <v>0.2163347027800817</v>
       </c>
       <c r="C8">
-        <v>0.1733517779918163</v>
+        <v>0.1733517779918164</v>
       </c>
       <c r="D8">
         <v>0.2026201366536789</v>
       </c>
       <c r="E8">
-        <v>0.2634961014069784</v>
+        <v>0.2634961014069783</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17079,16 +17327,16 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.1624319511574662</v>
+        <v>0.1624319511574663</v>
       </c>
       <c r="C15">
-        <v>0.1863978965819458</v>
+        <v>0.1863978965819457</v>
       </c>
       <c r="D15">
         <v>0.245168345323741</v>
       </c>
       <c r="E15">
-        <v>0.3085879666713025</v>
+        <v>0.3085879666713026</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17096,16 +17344,16 @@
         <v>41091</v>
       </c>
       <c r="B16">
-        <v>0.2019509205321921</v>
+        <v>0.2019509205321922</v>
       </c>
       <c r="C16">
-        <v>0.2174831088631317</v>
+        <v>0.2174831088631316</v>
       </c>
       <c r="D16">
-        <v>0.1999405906320316</v>
+        <v>0.1999405906320315</v>
       </c>
       <c r="E16">
-        <v>0.315375488466185</v>
+        <v>0.3153754884661849</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -17198,16 +17446,16 @@
         <v>41640</v>
       </c>
       <c r="B22">
-        <v>0.2363053494481447</v>
+        <v>0.2363053494481446</v>
       </c>
       <c r="C22">
-        <v>0.2129476424219488</v>
+        <v>0.212947642421949</v>
       </c>
       <c r="D22">
-        <v>0.2249467150939899</v>
+        <v>0.22494671509399</v>
       </c>
       <c r="E22">
-        <v>0.3065382407461709</v>
+        <v>0.3065382407461714</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -17218,13 +17466,13 @@
         <v>0.2270500130359341</v>
       </c>
       <c r="C23">
-        <v>0.2723168663533702</v>
+        <v>0.2723168663533703</v>
       </c>
       <c r="D23">
-        <v>0.3171781515661647</v>
+        <v>0.3171781515661648</v>
       </c>
       <c r="E23">
-        <v>0.3349966527536626</v>
+        <v>0.3349966527536627</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -17317,13 +17565,13 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.1953775683334773</v>
+        <v>0.1953775683334772</v>
       </c>
       <c r="C29">
-        <v>0.2714693164389128</v>
+        <v>0.271469316438913</v>
       </c>
       <c r="D29">
-        <v>0.2521471744615926</v>
+        <v>0.2521471744615925</v>
       </c>
       <c r="E29">
         <v>0.3651770069396733</v>
@@ -17340,10 +17588,10 @@
         <v>0.2565795706079047</v>
       </c>
       <c r="D30">
-        <v>0.3042705300290631</v>
+        <v>0.304270530029063</v>
       </c>
       <c r="E30">
-        <v>0.3446468226828686</v>
+        <v>0.3446468226828687</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -17419,16 +17667,16 @@
         <v>42826</v>
       </c>
       <c r="B35">
-        <v>0.2939454223029048</v>
+        <v>0.2939454223029045</v>
       </c>
       <c r="C35">
-        <v>0.3021366128884895</v>
+        <v>0.3021366128884896</v>
       </c>
       <c r="D35">
         <v>0.3019080217694677</v>
       </c>
       <c r="E35">
-        <v>0.3519688091538979</v>
+        <v>0.3519688091538978</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -17436,16 +17684,16 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.2896593095392545</v>
+        <v>0.2896593095392543</v>
       </c>
       <c r="C36">
-        <v>0.2956348113851114</v>
+        <v>0.2956348113851113</v>
       </c>
       <c r="D36">
         <v>0.3290068709714529</v>
       </c>
       <c r="E36">
-        <v>0.3690195710769306</v>
+        <v>0.3690195710769305</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -17524,10 +17772,10 @@
         <v>0.3231774300981969</v>
       </c>
       <c r="C41">
-        <v>0.3579909440321119</v>
+        <v>0.357990944032112</v>
       </c>
       <c r="D41">
-        <v>0.3849934325552336</v>
+        <v>0.3849934325552337</v>
       </c>
       <c r="E41">
         <v>0.3835944811771991</v>
@@ -17538,16 +17786,16 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.3068329491040923</v>
+        <v>0.3068329491040921</v>
       </c>
       <c r="C42">
-        <v>0.350199745146184</v>
+        <v>0.3501997451461833</v>
       </c>
       <c r="D42">
-        <v>0.3961084769528139</v>
+        <v>0.396108476952814</v>
       </c>
       <c r="E42">
-        <v>0.4030186125605094</v>
+        <v>0.4030186125605085</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -17606,13 +17854,13 @@
         <v>43831</v>
       </c>
       <c r="B46">
-        <v>0.3081385710768741</v>
+        <v>0.3081385710768743</v>
       </c>
       <c r="C46">
-        <v>0.3942473085909134</v>
+        <v>0.3942473085909139</v>
       </c>
       <c r="D46">
-        <v>0.3208184254983448</v>
+        <v>0.3208184254983449</v>
       </c>
       <c r="E46">
         <v>0.4029648401264427</v>
@@ -17640,13 +17888,13 @@
         <v>44013</v>
       </c>
       <c r="B48">
-        <v>0.226694715332558</v>
+        <v>0.2266947153325579</v>
       </c>
       <c r="C48">
-        <v>0.2913861458189574</v>
+        <v>0.2913861458189573</v>
       </c>
       <c r="D48">
-        <v>0.3045416761868525</v>
+        <v>0.3045416761868527</v>
       </c>
       <c r="E48">
         <v>0.3262370316918999</v>
@@ -17657,16 +17905,16 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.2582080047839695</v>
+        <v>0.2582080047839697</v>
       </c>
       <c r="C49">
-        <v>0.2953892804085143</v>
+        <v>0.2953892804085146</v>
       </c>
       <c r="D49">
-        <v>0.2642098195501866</v>
+        <v>0.2642098195501868</v>
       </c>
       <c r="E49">
-        <v>0.3399970162343648</v>
+        <v>0.3399970162343652</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -17708,13 +17956,13 @@
         <v>44378</v>
       </c>
       <c r="B52">
-        <v>0.2029276567615964</v>
+        <v>0.2029276567615965</v>
       </c>
       <c r="C52">
-        <v>0.2746368335177626</v>
+        <v>0.2746368335177625</v>
       </c>
       <c r="D52">
-        <v>0.2492748736483086</v>
+        <v>0.2492748736483087</v>
       </c>
       <c r="E52">
         <v>0.2991567018600125</v>
@@ -17725,13 +17973,13 @@
         <v>44470</v>
       </c>
       <c r="B53">
-        <v>0.2109540668477893</v>
+        <v>0.2109540668477894</v>
       </c>
       <c r="C53">
-        <v>0.2998518952535363</v>
+        <v>0.2998518952535362</v>
       </c>
       <c r="D53">
-        <v>0.219496489446969</v>
+        <v>0.2194964894469691</v>
       </c>
       <c r="E53">
         <v>0.3152798725083554</v>
@@ -17742,16 +17990,16 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.2377040091582383</v>
+        <v>0.2377040091582381</v>
       </c>
       <c r="C54">
-        <v>0.2900831678562853</v>
+        <v>0.2900831678562851</v>
       </c>
       <c r="D54">
-        <v>0.2120970534434813</v>
+        <v>0.2120970534434814</v>
       </c>
       <c r="E54">
-        <v>0.3132532792435586</v>
+        <v>0.3132532792435582</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -17827,16 +18075,16 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.199041463269034</v>
+        <v>0.1990414632690339</v>
       </c>
       <c r="C59">
-        <v>0.2504602570556669</v>
+        <v>0.2504602570556668</v>
       </c>
       <c r="D59">
         <v>0.2248031241978397</v>
       </c>
       <c r="E59">
-        <v>0.2840627079312246</v>
+        <v>0.2840627079312247</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -17844,13 +18092,13 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.1499357425509441</v>
+        <v>0.149935742550944</v>
       </c>
       <c r="C60">
-        <v>0.2601351408631118</v>
+        <v>0.2601351408631117</v>
       </c>
       <c r="D60">
-        <v>0.2177956244178442</v>
+        <v>0.2177956244178443</v>
       </c>
       <c r="E60">
         <v>0.252103982826735</v>
@@ -17861,16 +18109,16 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.1868961671323423</v>
+        <v>0.1868961671323425</v>
       </c>
       <c r="C61">
-        <v>0.2446288851994664</v>
+        <v>0.2446288851994661</v>
       </c>
       <c r="D61">
         <v>0.2212088359682519</v>
       </c>
       <c r="E61">
-        <v>0.2944594255019262</v>
+        <v>0.2944594255019263</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -17946,16 +18194,33 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.1745825683549529</v>
+        <v>0.1745825692473901</v>
       </c>
       <c r="C66">
-        <v>0.2697271213182026</v>
+        <v>0.2697271189054343</v>
       </c>
       <c r="D66">
-        <v>0.2276108018837453</v>
+        <v>0.2276107974669216</v>
       </c>
       <c r="E66">
-        <v>0.3023020969437331</v>
+        <v>0.3023020970311307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.1350417197836853</v>
+      </c>
+      <c r="C67">
+        <v>0.2172844769647359</v>
+      </c>
+      <c r="D67">
+        <v>0.2123939736688428</v>
+      </c>
+      <c r="E67">
+        <v>0.2677969796376898</v>
       </c>
     </row>
   </sheetData>
@@ -17965,7 +18230,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18087,7 +18352,7 @@
         <v>0.3120689034163561</v>
       </c>
       <c r="E7">
-        <v>0.4089091718920728</v>
+        <v>0.4089091718920727</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18098,13 +18363,13 @@
         <v>0.2438405122488509</v>
       </c>
       <c r="C8">
-        <v>0.2767926979838006</v>
+        <v>0.2767926979838007</v>
       </c>
       <c r="D8">
         <v>0.2875667739567452</v>
       </c>
       <c r="E8">
-        <v>0.345731585137431</v>
+        <v>0.3457315851374309</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18197,7 +18462,7 @@
         <v>40909</v>
       </c>
       <c r="B14">
-        <v>0.2816737243389373</v>
+        <v>0.2816737243389374</v>
       </c>
       <c r="C14">
         <v>0.2816705750407827</v>
@@ -18206,7 +18471,7 @@
         <v>0.3303591683322465</v>
       </c>
       <c r="E14">
-        <v>0.423650055641927</v>
+        <v>0.4236500556419269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -18214,10 +18479,10 @@
         <v>41000</v>
       </c>
       <c r="B15">
-        <v>0.2855939964385652</v>
+        <v>0.2855939964385654</v>
       </c>
       <c r="C15">
-        <v>0.2690201577563544</v>
+        <v>0.2690201577563543</v>
       </c>
       <c r="D15">
         <v>0.3091061870503596</v>
@@ -18336,13 +18601,13 @@
         <v>0.3017842044103217</v>
       </c>
       <c r="C22">
-        <v>0.3152982686816732</v>
+        <v>0.3152982686816736</v>
       </c>
       <c r="D22">
         <v>0.3170035710852298</v>
       </c>
       <c r="E22">
-        <v>0.3871287938165031</v>
+        <v>0.3871287938165033</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -18418,7 +18683,7 @@
         <v>42095</v>
       </c>
       <c r="B27">
-        <v>0.193852747821278</v>
+        <v>0.1938527478212779</v>
       </c>
       <c r="C27">
         <v>0.2739929442774123</v>
@@ -18427,7 +18692,7 @@
         <v>0.3196207849971568</v>
       </c>
       <c r="E27">
-        <v>0.3672981532456184</v>
+        <v>0.3672981532456183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -18435,16 +18700,16 @@
         <v>42186</v>
       </c>
       <c r="B28">
-        <v>0.3293893936192691</v>
+        <v>0.3293893936192692</v>
       </c>
       <c r="C28">
-        <v>0.2854528426560469</v>
+        <v>0.2854528426560466</v>
       </c>
       <c r="D28">
-        <v>0.3267814922839611</v>
+        <v>0.326781492283961</v>
       </c>
       <c r="E28">
-        <v>0.4179703707734473</v>
+        <v>0.4179703707734475</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -18452,13 +18717,13 @@
         <v>42278</v>
       </c>
       <c r="B29">
-        <v>0.3246710122315675</v>
+        <v>0.3246710122315674</v>
       </c>
       <c r="C29">
-        <v>0.3988104490217853</v>
+        <v>0.3988104490217856</v>
       </c>
       <c r="D29">
-        <v>0.3872190599143242</v>
+        <v>0.387219059914324</v>
       </c>
       <c r="E29">
         <v>0.457917245860429</v>
@@ -18526,10 +18791,10 @@
         <v>0.386847624910411</v>
       </c>
       <c r="D33">
-        <v>0.4050504688196513</v>
+        <v>0.4050504688196514</v>
       </c>
       <c r="E33">
-        <v>0.4312504747931858</v>
+        <v>0.4312504747931857</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -18537,16 +18802,16 @@
         <v>42736</v>
       </c>
       <c r="B34">
-        <v>0.3536176291996395</v>
+        <v>0.3536176291996393</v>
       </c>
       <c r="C34">
-        <v>0.3709847935396434</v>
+        <v>0.3709847935396431</v>
       </c>
       <c r="D34">
-        <v>0.433204678048357</v>
+        <v>0.4332046780483571</v>
       </c>
       <c r="E34">
-        <v>0.4884666776726847</v>
+        <v>0.488466677672685</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -18554,10 +18819,10 @@
         <v>42826</v>
       </c>
       <c r="B35">
-        <v>0.3332599791325027</v>
+        <v>0.3332599791325024</v>
       </c>
       <c r="C35">
-        <v>0.3870039207985109</v>
+        <v>0.3870039207985111</v>
       </c>
       <c r="D35">
         <v>0.3970341988561946</v>
@@ -18571,16 +18836,16 @@
         <v>42917</v>
       </c>
       <c r="B36">
-        <v>0.3454795906181676</v>
+        <v>0.3454795906181675</v>
       </c>
       <c r="C36">
-        <v>0.369220706010695</v>
+        <v>0.3692207060106947</v>
       </c>
       <c r="D36">
         <v>0.4289590637619835</v>
       </c>
       <c r="E36">
-        <v>0.4543770831020487</v>
+        <v>0.4543770831020485</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -18608,7 +18873,7 @@
         <v>0.3296407191379154</v>
       </c>
       <c r="C38">
-        <v>0.3414500193824709</v>
+        <v>0.341450019382471</v>
       </c>
       <c r="D38">
         <v>0.3935600650783078</v>
@@ -18673,16 +18938,16 @@
         <v>43466</v>
       </c>
       <c r="B42">
-        <v>0.3693604209819121</v>
+        <v>0.3693604209819119</v>
       </c>
       <c r="C42">
-        <v>0.410743166037369</v>
+        <v>0.4107431660373683</v>
       </c>
       <c r="D42">
         <v>0.4637736000066751</v>
       </c>
       <c r="E42">
-        <v>0.5085368163692139</v>
+        <v>0.5085368163692128</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -18690,16 +18955,16 @@
         <v>43556</v>
       </c>
       <c r="B43">
-        <v>0.4206391313193021</v>
+        <v>0.420639131319302</v>
       </c>
       <c r="C43">
         <v>0.4116572595321961</v>
       </c>
       <c r="D43">
-        <v>0.4504347856651077</v>
+        <v>0.4504347856651075</v>
       </c>
       <c r="E43">
-        <v>0.4792776882939165</v>
+        <v>0.4792776882939168</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -18778,10 +19043,10 @@
         <v>0.1706226483094838</v>
       </c>
       <c r="C48">
-        <v>0.2849642855272685</v>
+        <v>0.2849642855272683</v>
       </c>
       <c r="D48">
-        <v>0.2939635538409958</v>
+        <v>0.293963553840996</v>
       </c>
       <c r="E48">
         <v>0.3108405357180375</v>
@@ -18792,16 +19057,16 @@
         <v>44105</v>
       </c>
       <c r="B49">
-        <v>0.2332616860995966</v>
+        <v>0.2332616860995967</v>
       </c>
       <c r="C49">
-        <v>0.2960088219108206</v>
+        <v>0.296008821910821</v>
       </c>
       <c r="D49">
-        <v>0.2350762649618249</v>
+        <v>0.235076264961825</v>
       </c>
       <c r="E49">
-        <v>0.3183624506443427</v>
+        <v>0.3183624506443431</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -18809,13 +19074,13 @@
         <v>44197</v>
       </c>
       <c r="B50">
-        <v>0.1984478102506967</v>
+        <v>0.1984478102506965</v>
       </c>
       <c r="C50">
         <v>0.2416818094370319</v>
       </c>
       <c r="D50">
-        <v>0.205963337773208</v>
+        <v>0.2059633377732081</v>
       </c>
       <c r="E50">
         <v>0.285680763228435</v>
@@ -18877,16 +19142,16 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.2203945600933949</v>
+        <v>0.2203945600933948</v>
       </c>
       <c r="C54">
-        <v>0.2840024346422429</v>
+        <v>0.2840024346422427</v>
       </c>
       <c r="D54">
-        <v>0.2509809224491284</v>
+        <v>0.2509809224491285</v>
       </c>
       <c r="E54">
-        <v>0.2851564867688223</v>
+        <v>0.2851564867688219</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -18945,16 +19210,16 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>0.1959245248214614</v>
+        <v>0.1959245248214613</v>
       </c>
       <c r="C58">
-        <v>0.2650044076985278</v>
+        <v>0.265004407698528</v>
       </c>
       <c r="D58">
-        <v>0.2423361403420272</v>
+        <v>0.2423361403420271</v>
       </c>
       <c r="E58">
-        <v>0.2930592822132644</v>
+        <v>0.2930592822132643</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -18996,16 +19261,16 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.1925550966950852</v>
+        <v>0.1925550966950854</v>
       </c>
       <c r="C61">
-        <v>0.2337869077974846</v>
+        <v>0.2337869077974843</v>
       </c>
       <c r="D61">
-        <v>0.2159817482429027</v>
+        <v>0.2159817482429026</v>
       </c>
       <c r="E61">
-        <v>0.278900813857383</v>
+        <v>0.2789008138573831</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -19081,16 +19346,33 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.1860010647493959</v>
+        <v>0.1860010649893001</v>
       </c>
       <c r="C66">
-        <v>0.2573127012373982</v>
+        <v>0.2573126985520577</v>
       </c>
       <c r="D66">
-        <v>0.2259127546574602</v>
+        <v>0.2259127508138627</v>
       </c>
       <c r="E66">
-        <v>0.3260963756049563</v>
+        <v>0.3260963794140848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>0.1407909124299138</v>
+      </c>
+      <c r="C67">
+        <v>0.2215144840540713</v>
+      </c>
+      <c r="D67">
+        <v>0.2480312770302611</v>
+      </c>
+      <c r="E67">
+        <v>0.2604589537960937</v>
       </c>
     </row>
   </sheetData>

--- a/dont_knows_by_category.xlsx
+++ b/dont_knows_by_category.xlsx
@@ -1712,7 +1712,7 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.09398265400774333</v>
+        <v>0.1141940503046435</v>
       </c>
       <c r="C54">
         <v>0.1383545374674846</v>
@@ -1727,7 +1727,7 @@
         <v>0.09700373867840827</v>
       </c>
       <c r="G54">
-        <v>0.1141940503046435</v>
+        <v>0.09398265400774333</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1735,7 +1735,7 @@
         <v>44652</v>
       </c>
       <c r="B55">
-        <v>0.05157484272847589</v>
+        <v>0.1157653066232632</v>
       </c>
       <c r="C55">
         <v>0.136475150230762</v>
@@ -1750,7 +1750,7 @@
         <v>0.1095890119469804</v>
       </c>
       <c r="G55">
-        <v>0.1157653066232632</v>
+        <v>0.05157484272847589</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1758,7 +1758,7 @@
         <v>44743</v>
       </c>
       <c r="B56">
-        <v>0.03780777671894534</v>
+        <v>0.1185377679911381</v>
       </c>
       <c r="C56">
         <v>0.09220598780046656</v>
@@ -1773,7 +1773,7 @@
         <v>0.08766040289265689</v>
       </c>
       <c r="G56">
-        <v>0.1185377679911381</v>
+        <v>0.03780777671894534</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1781,7 +1781,7 @@
         <v>44835</v>
       </c>
       <c r="B57">
-        <v>0.07206409284784522</v>
+        <v>0.1226732411137927</v>
       </c>
       <c r="C57">
         <v>0.1212247986685922</v>
@@ -1796,7 +1796,7 @@
         <v>0.1279730185817046</v>
       </c>
       <c r="G57">
-        <v>0.1226732411137927</v>
+        <v>0.07206409284784522</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1804,7 +1804,7 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>0.09127935949567814</v>
+        <v>0.1055518887716705</v>
       </c>
       <c r="C58">
         <v>0.1054843161700064</v>
@@ -1819,7 +1819,7 @@
         <v>0.147606623444174</v>
       </c>
       <c r="G58">
-        <v>0.1055518887716705</v>
+        <v>0.09127935949567814</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1827,7 +1827,7 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.1224875523326827</v>
+        <v>0.1405866097119323</v>
       </c>
       <c r="C59">
         <v>0.1291115305912231</v>
@@ -1842,7 +1842,7 @@
         <v>0.1214227316800213</v>
       </c>
       <c r="G59">
-        <v>0.1405866097119323</v>
+        <v>0.1224875523326827</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1850,7 +1850,7 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.1133829352737476</v>
+        <v>0.07666702760690051</v>
       </c>
       <c r="C60">
         <v>0.1264147964003403</v>
@@ -1865,7 +1865,7 @@
         <v>0.1029889925719144</v>
       </c>
       <c r="G60">
-        <v>0.07666702760690051</v>
+        <v>0.1133829352737476</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1873,7 +1873,7 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.145984951021318</v>
+        <v>0.1101854427287457</v>
       </c>
       <c r="C61">
         <v>0.1332150310387886</v>
@@ -1888,7 +1888,7 @@
         <v>0.1592131940180863</v>
       </c>
       <c r="G61">
-        <v>0.1101854427287457</v>
+        <v>0.145984951021318</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1896,7 +1896,7 @@
         <v>45292</v>
       </c>
       <c r="B62">
-        <v>0.1127579766261525</v>
+        <v>0.1178712922555524</v>
       </c>
       <c r="C62">
         <v>0.1397564504023447</v>
@@ -1911,7 +1911,7 @@
         <v>0.1425621527246824</v>
       </c>
       <c r="G62">
-        <v>0.1178712922555524</v>
+        <v>0.1127579766261525</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1919,7 +1919,7 @@
         <v>45383</v>
       </c>
       <c r="B63">
-        <v>0.1120359446974275</v>
+        <v>0.1248068267701638</v>
       </c>
       <c r="C63">
         <v>0.116372965590484</v>
@@ -1934,7 +1934,7 @@
         <v>0.1182130798229401</v>
       </c>
       <c r="G63">
-        <v>0.1248068267701638</v>
+        <v>0.1120359446974275</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1942,7 +1942,7 @@
         <v>45474</v>
       </c>
       <c r="B64">
-        <v>0.1255276207965691</v>
+        <v>0.1133811880541608</v>
       </c>
       <c r="C64">
         <v>0.0792382072745437</v>
@@ -1957,7 +1957,7 @@
         <v>0.1412459386305238</v>
       </c>
       <c r="G64">
-        <v>0.1133811880541608</v>
+        <v>0.1255276207965691</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1965,7 +1965,7 @@
         <v>45566</v>
       </c>
       <c r="B65">
-        <v>0.1162291744380982</v>
+        <v>0.05960100490206281</v>
       </c>
       <c r="C65">
         <v>0.1158350029193492</v>
@@ -1980,7 +1980,7 @@
         <v>0.1051997511330532</v>
       </c>
       <c r="G65">
-        <v>0.05960100490206281</v>
+        <v>0.1162291744380982</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1988,7 +1988,7 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.09474320640300335</v>
+        <v>0.108908448428439</v>
       </c>
       <c r="C66">
         <v>0.1186814701967786</v>
@@ -2003,7 +2003,7 @@
         <v>0.1205038306656197</v>
       </c>
       <c r="G66">
-        <v>0.108908448428439</v>
+        <v>0.09474320640300335</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2011,7 +2011,7 @@
         <v>45748</v>
       </c>
       <c r="B67">
-        <v>0.08173000825091116</v>
+        <v>0.09085179133170433</v>
       </c>
       <c r="C67">
         <v>0.1152474128094591</v>
@@ -2026,7 +2026,7 @@
         <v>0.1181302702461362</v>
       </c>
       <c r="G67">
-        <v>0.09085179133170433</v>
+        <v>0.08173000825091116</v>
       </c>
     </row>
   </sheetData>
@@ -11798,7 +11798,7 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.3090536066294714</v>
+        <v>0.1576952290885684</v>
       </c>
       <c r="C54">
         <v>0.2208056639245783</v>
@@ -11813,7 +11813,7 @@
         <v>0.2874759005605573</v>
       </c>
       <c r="G54">
-        <v>0.1576952290885684</v>
+        <v>0.3090536066294714</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -11821,7 +11821,7 @@
         <v>44652</v>
       </c>
       <c r="B55">
-        <v>0.2186234477573007</v>
+        <v>0.1551077055100559</v>
       </c>
       <c r="C55">
         <v>0.1967142304726147</v>
@@ -11836,7 +11836,7 @@
         <v>0.2875070277445843</v>
       </c>
       <c r="G55">
-        <v>0.1551077055100559</v>
+        <v>0.2186234477573007</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -11844,7 +11844,7 @@
         <v>44743</v>
       </c>
       <c r="B56">
-        <v>0.1955636494906957</v>
+        <v>0.1347644090088491</v>
       </c>
       <c r="C56">
         <v>0.1220550685620348</v>
@@ -11859,7 +11859,7 @@
         <v>0.2640443893800786</v>
       </c>
       <c r="G56">
-        <v>0.1347644090088491</v>
+        <v>0.1955636494906957</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -11867,7 +11867,7 @@
         <v>44835</v>
       </c>
       <c r="B57">
-        <v>0.2225739046594067</v>
+        <v>0.1896365335836522</v>
       </c>
       <c r="C57">
         <v>0.2095104346326028</v>
@@ -11882,7 +11882,7 @@
         <v>0.2813380704301741</v>
       </c>
       <c r="G57">
-        <v>0.1896365335836522</v>
+        <v>0.2225739046594067</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -11890,7 +11890,7 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>0.2487620682733585</v>
+        <v>0.1559579126913342</v>
       </c>
       <c r="C58">
         <v>0.1958905483379078</v>
@@ -11905,7 +11905,7 @@
         <v>0.2894870619186505</v>
       </c>
       <c r="G58">
-        <v>0.1559579126913342</v>
+        <v>0.2487620682733585</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -11913,7 +11913,7 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.2780520333714959</v>
+        <v>0.1832783131029862</v>
       </c>
       <c r="C59">
         <v>0.1937222246502184</v>
@@ -11928,7 +11928,7 @@
         <v>0.2506069032757449</v>
       </c>
       <c r="G59">
-        <v>0.1832783131029862</v>
+        <v>0.2780520333714959</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -11936,7 +11936,7 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.2792484076256969</v>
+        <v>0.1596282208356129</v>
       </c>
       <c r="C60">
         <v>0.1700982945671995</v>
@@ -11951,7 +11951,7 @@
         <v>0.1989462245601357</v>
       </c>
       <c r="G60">
-        <v>0.1596282208356129</v>
+        <v>0.2792484076256969</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -11959,7 +11959,7 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.3073229450766554</v>
+        <v>0.1848773392564405</v>
       </c>
       <c r="C61">
         <v>0.2004930077271183</v>
@@ -11974,7 +11974,7 @@
         <v>0.2664705743833909</v>
       </c>
       <c r="G61">
-        <v>0.1848773392564405</v>
+        <v>0.3073229450766554</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -11982,7 +11982,7 @@
         <v>45292</v>
       </c>
       <c r="B62">
-        <v>0.3019399486572651</v>
+        <v>0.201092183541621</v>
       </c>
       <c r="C62">
         <v>0.2061058185106702</v>
@@ -11997,7 +11997,7 @@
         <v>0.2897540823456753</v>
       </c>
       <c r="G62">
-        <v>0.201092183541621</v>
+        <v>0.3019399486572651</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -12005,7 +12005,7 @@
         <v>45383</v>
       </c>
       <c r="B63">
-        <v>0.2303143022492372</v>
+        <v>0.1714652475426786</v>
       </c>
       <c r="C63">
         <v>0.1936826399739601</v>
@@ -12020,7 +12020,7 @@
         <v>0.2505057983633107</v>
       </c>
       <c r="G63">
-        <v>0.1714652475426786</v>
+        <v>0.2303143022492372</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -12028,7 +12028,7 @@
         <v>45474</v>
       </c>
       <c r="B64">
-        <v>0.2271010539737838</v>
+        <v>0.1745707997528089</v>
       </c>
       <c r="C64">
         <v>0.1245433168541055</v>
@@ -12043,7 +12043,7 @@
         <v>0.2617334745992111</v>
       </c>
       <c r="G64">
-        <v>0.1745707997528089</v>
+        <v>0.2271010539737838</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -12051,7 +12051,7 @@
         <v>45566</v>
       </c>
       <c r="B65">
-        <v>0.2806870756070347</v>
+        <v>0.1130947625032101</v>
       </c>
       <c r="C65">
         <v>0.1646918492192037</v>
@@ -12066,7 +12066,7 @@
         <v>0.2242747745923413</v>
       </c>
       <c r="G65">
-        <v>0.1130947625032101</v>
+        <v>0.2806870756070347</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -12074,7 +12074,7 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.2647734922299953</v>
+        <v>0.171765128658868</v>
       </c>
       <c r="C66">
         <v>0.1983909676846838</v>
@@ -12089,7 +12089,7 @@
         <v>0.2694794445938944</v>
       </c>
       <c r="G66">
-        <v>0.171765128658868</v>
+        <v>0.2647734922299953</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -12097,7 +12097,7 @@
         <v>45748</v>
       </c>
       <c r="B67">
-        <v>0.2317493478174383</v>
+        <v>0.135787725348245</v>
       </c>
       <c r="C67">
         <v>0.1961161757810351</v>
@@ -12112,7 +12112,7 @@
         <v>0.2250574401821835</v>
       </c>
       <c r="G67">
-        <v>0.135787725348245</v>
+        <v>0.2317493478174383</v>
       </c>
     </row>
   </sheetData>
@@ -13352,7 +13352,7 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>0.3034419761898762</v>
+        <v>0.1468911242664148</v>
       </c>
       <c r="C54">
         <v>0.2151458687612874</v>
@@ -13367,7 +13367,7 @@
         <v>0.2876429893643136</v>
       </c>
       <c r="G54">
-        <v>0.1468911242664148</v>
+        <v>0.3034419761898762</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -13375,7 +13375,7 @@
         <v>44652</v>
       </c>
       <c r="B55">
-        <v>0.2362769283652957</v>
+        <v>0.1498305308303819</v>
       </c>
       <c r="C55">
         <v>0.1747774847765205</v>
@@ -13390,7 +13390,7 @@
         <v>0.2882375292460284</v>
       </c>
       <c r="G55">
-        <v>0.1498305308303819</v>
+        <v>0.2362769283652957</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -13398,7 +13398,7 @@
         <v>44743</v>
       </c>
       <c r="B56">
-        <v>0.2078458090813485</v>
+        <v>0.130002981552217</v>
       </c>
       <c r="C56">
         <v>0.1707697922356779</v>
@@ -13413,7 +13413,7 @@
         <v>0.2540155178057787</v>
       </c>
       <c r="G56">
-        <v>0.130002981552217</v>
+        <v>0.2078458090813485</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -13421,7 +13421,7 @@
         <v>44835</v>
       </c>
       <c r="B57">
-        <v>0.2201360309450861</v>
+        <v>0.1796154557082592</v>
       </c>
       <c r="C57">
         <v>0.2018091112535484</v>
@@ -13436,7 +13436,7 @@
         <v>0.3122497479995633</v>
       </c>
       <c r="G57">
-        <v>0.1796154557082592</v>
+        <v>0.2201360309450861</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -13444,7 +13444,7 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>0.314440384673602</v>
+        <v>0.1524637239992183</v>
       </c>
       <c r="C58">
         <v>0.186353815388909</v>
@@ -13459,7 +13459,7 @@
         <v>0.2941202886178341</v>
       </c>
       <c r="G58">
-        <v>0.1524637239992183</v>
+        <v>0.314440384673602</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -13467,7 +13467,7 @@
         <v>45017</v>
       </c>
       <c r="B59">
-        <v>0.2820477647612497</v>
+        <v>0.1886420311031802</v>
       </c>
       <c r="C59">
         <v>0.1658746288584021</v>
@@ -13482,7 +13482,7 @@
         <v>0.2719367294740467</v>
       </c>
       <c r="G59">
-        <v>0.1886420311031802</v>
+        <v>0.2820477647612497</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -13490,7 +13490,7 @@
         <v>45108</v>
       </c>
       <c r="B60">
-        <v>0.2909010691484038</v>
+        <v>0.1399827991448973</v>
       </c>
       <c r="C60">
         <v>0.1833386404803205</v>
@@ -13505,7 +13505,7 @@
         <v>0.2182852577861194</v>
       </c>
       <c r="G60">
-        <v>0.1399827991448973</v>
+        <v>0.2909010691484038</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -13513,7 +13513,7 @@
         <v>45200</v>
       </c>
       <c r="B61">
-        <v>0.3554640307178026</v>
+        <v>0.1430961857508199</v>
       </c>
       <c r="C61">
         <v>0.1876379060115404</v>
@@ -13528,7 +13528,7 @@
         <v>0.2661768927423153</v>
       </c>
       <c r="G61">
-        <v>0.1430961857508199</v>
+        <v>0.3554640307178026</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -13536,7 +13536,7 @@
         <v>45292</v>
       </c>
       <c r="B62">
-        <v>0.3128663850002741</v>
+        <v>0.1856874625419253</v>
       </c>
       <c r="C62">
         <v>0.2082421373441067</v>
@@ -13551,7 +13551,7 @@
         <v>0.3007942417533103</v>
       </c>
       <c r="G62">
-        <v>0.1856874625419253</v>
+        <v>0.3128663850002741</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -13559,7 +13559,7 @@
         <v>45383</v>
       </c>
       <c r="B63">
-        <v>0.3359479355600391</v>
+        <v>0.1776271344197125</v>
       </c>
       <c r="C63">
         <v>0.187642356975089</v>
@@ -13574,7 +13574,7 @@
         <v>0.2683400501978558</v>
       </c>
       <c r="G63">
-        <v>0.1776271344197125</v>
+        <v>0.3359479355600391</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13582,7 +13582,7 @@
         <v>45474</v>
       </c>
       <c r="B64">
-        <v>0.2701627011008559</v>
+        <v>0.1640390158529888</v>
       </c>
       <c r="C64">
         <v>0.1532242550941925</v>
@@ -13597,7 +13597,7 @@
         <v>0.2489368626810783</v>
       </c>
       <c r="G64">
-        <v>0.1640390158529888</v>
+        <v>0.2701627011008559</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -13605,7 +13605,7 @@
         <v>45566</v>
       </c>
       <c r="B65">
-        <v>0.2668197753066799</v>
+        <v>0.1313644917144004</v>
       </c>
       <c r="C65">
         <v>0.1288104982515985</v>
@@ -13620,7 +13620,7 @@
         <v>0.2533505769095319</v>
       </c>
       <c r="G65">
-        <v>0.1313644917144004</v>
+        <v>0.2668197753066799</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13628,7 +13628,7 @@
         <v>45658</v>
       </c>
       <c r="B66">
-        <v>0.3037954060746352</v>
+        <v>0.1569913055779799</v>
       </c>
       <c r="C66">
         <v>0.1856284627866047</v>
@@ -13643,7 +13643,7 @@
         <v>0.2826139680370988</v>
       </c>
       <c r="G66">
-        <v>0.1569913055779799</v>
+        <v>0.3037954060746352</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -13651,7 +13651,7 @@
         <v>45748</v>
       </c>
       <c r="B67">
-        <v>0.3244351914525723</v>
+        <v>0.1139605159815653</v>
       </c>
       <c r="C67">
         <v>0.1690495999855866</v>
@@ -13666,7 +13666,7 @@
         <v>0.2570131938052684</v>
       </c>
       <c r="G67">
-        <v>0.1139605159815653</v>
+        <v>0.3244351914525723</v>
       </c>
     </row>
   </sheetData>
